--- a/AllClasses.xlsx
+++ b/AllClasses.xlsx
@@ -13,7 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="import" sheetId="2" r:id="rId1"/>
-    <sheet name="export" sheetId="1" r:id="rId2"/>
+    <sheet name="export" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,10 +26,13 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="ClassesSample" type="4" refreshedVersion="0" background="1">
+  <connection id="1" name="AllClasses" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="C:\Users\MiSc\Desktop\MyFTV\Notes\Meta\AllClasses.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="2" name="ClassesSample" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\MiSc\Desktop\MyFTV\Notes\Meta\ClassesSample.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="2" name="model" type="4" refreshedVersion="0" background="1">
+  <connection id="3" name="model" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\MiSc\Desktop\MyFTV\Notes\Meta\model.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
@@ -1484,28 +1487,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1519,104 +1501,10 @@
 </file>
 
 <file path=xl/xmlMaps.xml><?xml version="1.0" encoding="utf-8"?>
-<MapInfo xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" SelectionNamespaces="xmlns:ns1='http://www.eclipse.org/uml2/5.0.0/UML' xmlns:ns2='http://www.omg.org/spec/XMI/20131001'">
-  <Schema ID="Schema1" Namespace="http://www.omg.org/spec/XMI/20131001">
-    <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:ns0="http://www.omg.org/spec/XMI/20131001" xmlns="" targetNamespace="http://www.omg.org/spec/XMI/20131001">
-      <xsd:attribute name="version" type="xsd:integer"/>
-      <xsd:attribute name="id" type="xsd:string"/>
-      <xsd:attribute name="type" type="xsd:string"/>
-    </xsd:schema>
-  </Schema>
-  <Schema ID="Schema2">
-    <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:ns0="http://www.omg.org/spec/XMI/20131001" xmlns="">
-      <xsd:import namespace="http://www.omg.org/spec/XMI/20131001"/>
-      <xsd:element nillable="true" name="packagedElement">
-        <xsd:complexType>
-          <xsd:sequence minOccurs="0" maxOccurs="unbounded">
-            <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="ownedAttribute" form="unqualified">
-              <xsd:complexType>
-                <xsd:attribute ref="ns0:type"/>
-                <xsd:attribute ref="ns0:id"/>
-                <xsd:attribute name="name" form="unqualified" type="xsd:string"/>
-                <xsd:attribute name="type" form="unqualified" type="xsd:string"/>
-              </xsd:complexType>
-            </xsd:element>
-            <xsd:element minOccurs="0" nillable="true" name="generalization" form="unqualified">
-              <xsd:complexType>
-                <xsd:attribute ref="ns0:type"/>
-                <xsd:attribute ref="ns0:id"/>
-                <xsd:attribute name="general" form="unqualified" type="xsd:string"/>
-              </xsd:complexType>
-            </xsd:element>
-            <xsd:element minOccurs="0" nillable="true" name="eAnnotations" form="unqualified">
-              <xsd:complexType>
-                <xsd:sequence minOccurs="0">
-                  <xsd:element minOccurs="0" nillable="true" name="details" form="unqualified">
-                    <xsd:complexType>
-                      <xsd:attribute ref="ns0:type"/>
-                      <xsd:attribute ref="ns0:id"/>
-                      <xsd:attribute name="key" form="unqualified" type="xsd:string"/>
-                      <xsd:attribute name="value" form="unqualified" type="xsd:string"/>
-                    </xsd:complexType>
-                  </xsd:element>
-                </xsd:sequence>
-                <xsd:attribute ref="ns0:type"/>
-                <xsd:attribute ref="ns0:id"/>
-                <xsd:attribute name="source" form="unqualified" type="xsd:string"/>
-              </xsd:complexType>
-            </xsd:element>
-            <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="ownedEnd" form="unqualified">
-              <xsd:complexType>
-                <xsd:sequence minOccurs="0">
-                  <xsd:element minOccurs="0" nillable="true" name="lowerValue" form="unqualified">
-                    <xsd:complexType>
-                      <xsd:attribute ref="ns0:type"/>
-                      <xsd:attribute ref="ns0:id"/>
-                    </xsd:complexType>
-                  </xsd:element>
-                  <xsd:element minOccurs="0" nillable="true" name="upperValue" form="unqualified">
-                    <xsd:complexType>
-                      <xsd:attribute ref="ns0:type"/>
-                      <xsd:attribute ref="ns0:id"/>
-                      <xsd:attribute name="value" form="unqualified" type="xsd:string"/>
-                    </xsd:complexType>
-                  </xsd:element>
-                </xsd:sequence>
-                <xsd:attribute ref="ns0:type"/>
-                <xsd:attribute ref="ns0:id"/>
-                <xsd:attribute name="name" form="unqualified" type="xsd:string"/>
-                <xsd:attribute name="type" form="unqualified" type="xsd:string"/>
-                <xsd:attribute name="association" form="unqualified" type="xsd:string"/>
-              </xsd:complexType>
-            </xsd:element>
-          </xsd:sequence>
-          <xsd:attribute ref="ns0:type"/>
-          <xsd:attribute ref="ns0:id"/>
-          <xsd:attribute name="name" form="unqualified" type="xsd:string"/>
-          <xsd:attribute name="memberEnd" form="unqualified" type="xsd:string"/>
-        </xsd:complexType>
-      </xsd:element>
-    </xsd:schema>
-  </Schema>
-  <Schema ID="Schema3" SchemaRef="Schema1 Schema2" Namespace="http://www.eclipse.org/uml2/5.0.0/UML">
-    <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:ns0="http://www.omg.org/spec/XMI/20131001" xmlns:ns1="http://www.eclipse.org/uml2/5.0.0/UML" xmlns="" targetNamespace="http://www.eclipse.org/uml2/5.0.0/UML">
-      <xsd:import namespace="http://www.omg.org/spec/XMI/20131001"/>
-      <xsd:import/>
-      <xsd:element nillable="true" name="Model">
-        <xsd:complexType>
-          <xsd:sequence minOccurs="0">
-            <xsd:element minOccurs="0" maxOccurs="unbounded" ref="packagedElement"/>
-          </xsd:sequence>
-          <xsd:attribute ref="ns0:version"/>
-          <xsd:attribute ref="ns0:id"/>
-          <xsd:attribute name="name" form="unqualified" type="xsd:string"/>
-        </xsd:complexType>
-      </xsd:element>
-    </xsd:schema>
-  </Schema>
-  <Schema ID="Schema4">
+<MapInfo xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" SelectionNamespaces="">
+  <Schema ID="Schema5">
     <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
-      <xsd:element nillable="true" name="sheet">
+      <xsd:element nillable="true" name="all_classes">
         <xsd:complexType>
           <xsd:sequence minOccurs="0">
             <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="class" form="unqualified">
@@ -1624,7 +1512,7 @@
                 <xsd:sequence minOccurs="0">
                   <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="name" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="id" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="base" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="base" form="unqualified"/>
                 </xsd:sequence>
               </xsd:complexType>
             </xsd:element>
@@ -1633,30 +1521,27 @@
       </xsd:element>
     </xsd:schema>
   </Schema>
-  <Map ID="1" Name="Model_Map" RootElement="Model" SchemaID="Schema3" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="2" DataBindingLoadMode="1"/>
-  </Map>
-  <Map ID="2" Name="sheet_Map" RootElement="sheet" SchemaID="Schema4" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="1" DataBindingLoadMode="1"/>
+  <Map ID="3" Name="all_classes_Map" RootElement="all_classes" SchemaID="Schema5" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
+    <DataBinding DataBindingName="Binding1" FileBinding="true" ConnectionID="1" DataBindingLoadMode="1"/>
   </Map>
 </MapInfo>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:C461" tableType="xml" totalsRowShown="0" headerRowDxfId="1" connectionId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:C461" tableType="xml" totalsRowShown="0" connectionId="1">
   <autoFilter ref="A1:C461"/>
   <tableColumns count="3">
     <tableColumn id="1" uniqueName="name" name="name">
       <calculatedColumnFormula>import!$A2</calculatedColumnFormula>
-      <xmlColumnPr mapId="2" xpath="/sheet/class/name" xmlDataType="string"/>
+      <xmlColumnPr mapId="3" xpath="/all_classes/class/name" xmlDataType="string"/>
     </tableColumn>
     <tableColumn id="2" uniqueName="id" name="id">
       <calculatedColumnFormula>import!C2</calculatedColumnFormula>
-      <xmlColumnPr mapId="2" xpath="/sheet/class/id" xmlDataType="integer"/>
+      <xmlColumnPr mapId="3" xpath="/all_classes/class/id" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="base" name="base" dataDxfId="0">
+    <tableColumn id="3" uniqueName="base" name="base">
       <calculatedColumnFormula>import!D2</calculatedColumnFormula>
-      <xmlColumnPr mapId="2" xpath="/sheet/class/base" xmlDataType="integer"/>
+      <xmlColumnPr mapId="3" xpath="/all_classes/class/base" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1929,7 +1814,7 @@
   <dimension ref="A1:D461"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A437" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -9316,26 +9201,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C461"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2:C461"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C461"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="42.77734375" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="1" max="1" width="16.77734375" customWidth="1"/>
+    <col min="2" max="3" width="10.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -15781,9 +15664,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
--- a/AllClasses.xlsx
+++ b/AllClasses.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="8472" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="8472" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="import" sheetId="2" r:id="rId1"/>
     <sheet name="export" sheetId="3" r:id="rId2"/>
+    <sheet name="export2" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,17 +30,20 @@
   <connection id="1" name="AllClasses" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\MiSc\Desktop\MyFTV\Notes\Meta\AllClasses.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="2" name="ClassesSample" type="4" refreshedVersion="0" background="1">
+  <connection id="2" name="AllClasses1" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="C:\Users\MiSc\Desktop\MyFTV\Notes\Meta\AllClasses.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="3" name="ClassesSample" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\MiSc\Desktop\MyFTV\Notes\Meta\ClassesSample.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
-  <connection id="3" name="model" type="4" refreshedVersion="0" background="1">
+  <connection id="4" name="model" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Users\MiSc\Desktop\MyFTV\Notes\Meta\model.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="467">
   <si>
     <t>name</t>
   </si>
@@ -1437,6 +1441,9 @@
   </si>
   <si>
     <t>baseid</t>
+  </si>
+  <si>
+    <t>export</t>
   </si>
 </sst>
 </file>
@@ -1521,8 +1528,30 @@
       </xsd:element>
     </xsd:schema>
   </Schema>
+  <Schema ID="Schema2">
+    <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
+      <xsd:element nillable="true" name="all_classes">
+        <xsd:complexType>
+          <xsd:sequence minOccurs="0">
+            <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="class" form="unqualified">
+              <xsd:complexType>
+                <xsd:sequence minOccurs="0">
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="name" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="id" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="base" form="unqualified"/>
+                </xsd:sequence>
+              </xsd:complexType>
+            </xsd:element>
+          </xsd:sequence>
+        </xsd:complexType>
+      </xsd:element>
+    </xsd:schema>
+  </Schema>
   <Map ID="3" Name="all_classes_Map" RootElement="all_classes" SchemaID="Schema5" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
     <DataBinding DataBindingName="Binding1" FileBinding="true" ConnectionID="1" DataBindingLoadMode="1"/>
+  </Map>
+  <Map ID="4" Name="all_classes_Map2" RootElement="all_classes" SchemaID="Schema2" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
+    <DataBinding FileBinding="true" ConnectionID="2" DataBindingLoadMode="1"/>
   </Map>
 </MapInfo>
 </file>
@@ -1542,6 +1571,27 @@
     <tableColumn id="3" uniqueName="base" name="base">
       <calculatedColumnFormula>import!D2</calculatedColumnFormula>
       <xmlColumnPr mapId="3" xpath="/all_classes/class/base" xmlDataType="string"/>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:C461" tableType="xml" totalsRowShown="0" connectionId="2">
+  <autoFilter ref="A1:C461"/>
+  <tableColumns count="3">
+    <tableColumn id="1" uniqueName="name" name="export">
+      <calculatedColumnFormula>import!$A2</calculatedColumnFormula>
+      <xmlColumnPr mapId="4" xpath="/all_classes/class/name" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="2" uniqueName="id" name="id">
+      <calculatedColumnFormula>import!C2</calculatedColumnFormula>
+      <xmlColumnPr mapId="4" xpath="/all_classes/class/id" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="3" uniqueName="base" name="base">
+      <calculatedColumnFormula>import!D2</calculatedColumnFormula>
+      <xmlColumnPr mapId="4" xpath="/all_classes/class/base" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1811,6 +1861,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D461"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9199,9 +9250,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C461"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A435" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:C461"/>
     </sheetView>
   </sheetViews>
@@ -15668,4 +15720,6477 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C461"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C461"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="str">
+        <f>import!$A2</f>
+        <v>Bareme</v>
+      </c>
+      <c r="B2">
+        <f>import!C2</f>
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <f>import!D2</f>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="str">
+        <f>import!$A3</f>
+        <v>BaremeVersion</v>
+      </c>
+      <c r="B3">
+        <f>import!C3</f>
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <f>import!D3</f>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="str">
+        <f>import!$A4</f>
+        <v>CatalogueActeur</v>
+      </c>
+      <c r="B4">
+        <f>import!C4</f>
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <f>import!D4</f>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="str">
+        <f>import!$A5</f>
+        <v>CatalogueActeurVersion</v>
+      </c>
+      <c r="B5">
+        <f>import!C5</f>
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <f>import!D5</f>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="str">
+        <f>import!$A6</f>
+        <v>CategorieMoyenStructurant</v>
+      </c>
+      <c r="B6">
+        <f>import!C6</f>
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <f>import!D6</f>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="str">
+        <f>import!$A7</f>
+        <v>Centre</v>
+      </c>
+      <c r="B7">
+        <f>import!C7</f>
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <f>import!D7</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="str">
+        <f>import!$A8</f>
+        <v>CentreUtilisateurs</v>
+      </c>
+      <c r="B8">
+        <f>import!C8</f>
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <f>import!D8</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="str">
+        <f>import!$A9</f>
+        <v>ContexteUtilisateur</v>
+      </c>
+      <c r="B9">
+        <f>import!C9</f>
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <f>import!D9</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="str">
+        <f>import!$A10</f>
+        <v>ContexteUtilisateurCritere</v>
+      </c>
+      <c r="B10">
+        <f>import!C10</f>
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <f>import!D10</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="str">
+        <f>import!$A11</f>
+        <v>ContexteUtilisateurCritereBareme</v>
+      </c>
+      <c r="B11">
+        <f>import!C11</f>
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <f>import!D11</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="str">
+        <f>import!$A12</f>
+        <v>ContexteUtilisateurCritereBaremeDevis</v>
+      </c>
+      <c r="B12">
+        <f>import!C12</f>
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <f>import!D12</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="str">
+        <f>import!$A13</f>
+        <v>ContexteUtilisateurCritereBoolean</v>
+      </c>
+      <c r="B13">
+        <f>import!C13</f>
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <f>import!D13</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="str">
+        <f>import!$A14</f>
+        <v>ContexteUtilisateurCritereBooleanDevisCloture</v>
+      </c>
+      <c r="B14">
+        <f>import!C14</f>
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <f>import!D14</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="str">
+        <f>import!$A15</f>
+        <v>ContexteUtilisateurCritereBooleanDevisStatutValide</v>
+      </c>
+      <c r="B15">
+        <f>import!C15</f>
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <f>import!D15</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="str">
+        <f>import!$A16</f>
+        <v>ContexteUtilisateurCritereBooleanOperationActif</v>
+      </c>
+      <c r="B16">
+        <f>import!C16</f>
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <f>import!D16</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="str">
+        <f>import!$A17</f>
+        <v>ContexteUtilisateurCritereCentre</v>
+      </c>
+      <c r="B17">
+        <f>import!C17</f>
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <f>import!D17</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="str">
+        <f>import!$A18</f>
+        <v>ContexteUtilisateurCritereCentreProjet</v>
+      </c>
+      <c r="B18">
+        <f>import!C18</f>
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <f>import!D18</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="str">
+        <f>import!$A19</f>
+        <v>ContexteUtilisateurCritereCodeProduit</v>
+      </c>
+      <c r="B19">
+        <f>import!C19</f>
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <f>import!D19</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="str">
+        <f>import!$A20</f>
+        <v>ContexteUtilisateurCritereCodeProduitDevis</v>
+      </c>
+      <c r="B20">
+        <f>import!C20</f>
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <f>import!D20</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="str">
+        <f>import!$A21</f>
+        <v>ContexteUtilisateurCritereCodeProduitOperation</v>
+      </c>
+      <c r="B21">
+        <f>import!C21</f>
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <f>import!D21</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="str">
+        <f>import!$A22</f>
+        <v>ContexteUtilisateurCritereCodeProduitProjet</v>
+      </c>
+      <c r="B22">
+        <f>import!C22</f>
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <f>import!D22</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="str">
+        <f>import!$A23</f>
+        <v>ContexteUtilisateurCritereCollaborateur</v>
+      </c>
+      <c r="B23">
+        <f>import!C23</f>
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <f>import!D23</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="str">
+        <f>import!$A24</f>
+        <v>ContexteUtilisateurCritereCollaborateurDevis</v>
+      </c>
+      <c r="B24">
+        <f>import!C24</f>
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <f>import!D24</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="str">
+        <f>import!$A25</f>
+        <v>ContexteUtilisateurCritereCollaborateurDevisAssistant</v>
+      </c>
+      <c r="B25">
+        <f>import!C25</f>
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <f>import!D25</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="str">
+        <f>import!$A26</f>
+        <v>ContexteUtilisateurCritereCollaborateurDevisResponsable</v>
+      </c>
+      <c r="B26">
+        <f>import!C26</f>
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <f>import!D26</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="str">
+        <f>import!$A27</f>
+        <v>ContexteUtilisateurCritereCollaborateurDevisResponsablePP</v>
+      </c>
+      <c r="B27">
+        <f>import!C27</f>
+        <v>26</v>
+      </c>
+      <c r="C27">
+        <f>import!D27</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="str">
+        <f>import!$A28</f>
+        <v>ContexteUtilisateurCritereCollaborateurProjetReferent</v>
+      </c>
+      <c r="B28">
+        <f>import!C28</f>
+        <v>27</v>
+      </c>
+      <c r="C28">
+        <f>import!D28</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="str">
+        <f>import!$A29</f>
+        <v>ContexteUtilisateurCritereDate</v>
+      </c>
+      <c r="B29">
+        <f>import!C29</f>
+        <v>28</v>
+      </c>
+      <c r="C29">
+        <f>import!D29</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="str">
+        <f>import!$A30</f>
+        <v>ContexteUtilisateurCritereDateOperationDateCreation</v>
+      </c>
+      <c r="B30">
+        <f>import!C30</f>
+        <v>29</v>
+      </c>
+      <c r="C30">
+        <f>import!D30</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="str">
+        <f>import!$A31</f>
+        <v>ContexteUtilisateurCritereDateOperationDerniereModification</v>
+      </c>
+      <c r="B31">
+        <f>import!C31</f>
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <f>import!D31</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" t="str">
+        <f>import!$A32</f>
+        <v>ContexteUtilisateurCritereDateOperationPretADiffuser</v>
+      </c>
+      <c r="B32">
+        <f>import!C32</f>
+        <v>31</v>
+      </c>
+      <c r="C32">
+        <f>import!D32</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" t="str">
+        <f>import!$A33</f>
+        <v>ContexteUtilisateurCritereDateOperationPretATourner</v>
+      </c>
+      <c r="B33">
+        <f>import!C33</f>
+        <v>32</v>
+      </c>
+      <c r="C33">
+        <f>import!D33</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" t="str">
+        <f>import!$A34</f>
+        <v>ContexteUtilisateurCritereDateProjetPremiereDiffusion</v>
+      </c>
+      <c r="B34">
+        <f>import!C34</f>
+        <v>33</v>
+      </c>
+      <c r="C34">
+        <f>import!D34</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" t="str">
+        <f>import!$A35</f>
+        <v>ContexteUtilisateurCritereFonction</v>
+      </c>
+      <c r="B35">
+        <f>import!C35</f>
+        <v>34</v>
+      </c>
+      <c r="C35">
+        <f>import!D35</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" t="str">
+        <f>import!$A36</f>
+        <v>ContexteUtilisateurCritereFonctionMembre</v>
+      </c>
+      <c r="B36">
+        <f>import!C36</f>
+        <v>35</v>
+      </c>
+      <c r="C36">
+        <f>import!D36</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" t="str">
+        <f>import!$A37</f>
+        <v>ContexteUtilisateurCritereFTVActeur</v>
+      </c>
+      <c r="B37">
+        <f>import!C37</f>
+        <v>36</v>
+      </c>
+      <c r="C37">
+        <f>import!D37</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" t="str">
+        <f>import!$A38</f>
+        <v>ContexteUtilisateurCritereFTVClient</v>
+      </c>
+      <c r="B38">
+        <f>import!C38</f>
+        <v>37</v>
+      </c>
+      <c r="C38">
+        <f>import!D38</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" t="str">
+        <f>import!$A39</f>
+        <v>ContexteUtilisateurCritereFTVClientProjet</v>
+      </c>
+      <c r="B39">
+        <f>import!C39</f>
+        <v>38</v>
+      </c>
+      <c r="C39">
+        <f>import!D39</f>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" t="str">
+        <f>import!$A40</f>
+        <v>ContexteUtilisateurCritereFTVFournisseur</v>
+      </c>
+      <c r="B40">
+        <f>import!C40</f>
+        <v>39</v>
+      </c>
+      <c r="C40">
+        <f>import!D40</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" t="str">
+        <f>import!$A41</f>
+        <v>ContexteUtilisateurCritereFTVFournisseurOperation</v>
+      </c>
+      <c r="B41">
+        <f>import!C41</f>
+        <v>40</v>
+      </c>
+      <c r="C41">
+        <f>import!D41</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" t="str">
+        <f>import!$A42</f>
+        <v>ContexteUtilisateurCritereMarche</v>
+      </c>
+      <c r="B42">
+        <f>import!C42</f>
+        <v>41</v>
+      </c>
+      <c r="C42">
+        <f>import!D42</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="str">
+        <f>import!$A43</f>
+        <v>ContexteUtilisateurCritereMarcheOperation</v>
+      </c>
+      <c r="B43">
+        <f>import!C43</f>
+        <v>42</v>
+      </c>
+      <c r="C43">
+        <f>import!D43</f>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="str">
+        <f>import!$A44</f>
+        <v>ContexteUtilisateurCritereMoyensStructurants</v>
+      </c>
+      <c r="B44">
+        <f>import!C44</f>
+        <v>43</v>
+      </c>
+      <c r="C44">
+        <f>import!D44</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" t="str">
+        <f>import!$A45</f>
+        <v>ContexteUtilisateurCritereMoyensStructurantsOperation</v>
+      </c>
+      <c r="B45">
+        <f>import!C45</f>
+        <v>44</v>
+      </c>
+      <c r="C45">
+        <f>import!D45</f>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" t="str">
+        <f>import!$A46</f>
+        <v>ContexteUtilisateurCritereQUser</v>
+      </c>
+      <c r="B46">
+        <f>import!C46</f>
+        <v>45</v>
+      </c>
+      <c r="C46">
+        <f>import!D46</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" t="str">
+        <f>import!$A47</f>
+        <v>ContexteUtilisateurCritereQUserOperationCreation</v>
+      </c>
+      <c r="B47">
+        <f>import!C47</f>
+        <v>46</v>
+      </c>
+      <c r="C47">
+        <f>import!D47</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" t="str">
+        <f>import!$A48</f>
+        <v>ContexteUtilisateurCritereQUserOperationDerniereModification</v>
+      </c>
+      <c r="B48">
+        <f>import!C48</f>
+        <v>47</v>
+      </c>
+      <c r="C48">
+        <f>import!D48</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" t="str">
+        <f>import!$A49</f>
+        <v>ContexteUtilisateurCritereRegroupementCategorie</v>
+      </c>
+      <c r="B49">
+        <f>import!C49</f>
+        <v>48</v>
+      </c>
+      <c r="C49">
+        <f>import!D49</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" t="str">
+        <f>import!$A50</f>
+        <v>ContexteUtilisateurCritereRegroupementCategorieCNCSub</v>
+      </c>
+      <c r="B50">
+        <f>import!C50</f>
+        <v>49</v>
+      </c>
+      <c r="C50">
+        <f>import!D50</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" t="str">
+        <f>import!$A51</f>
+        <v>ContexteUtilisateurCritereRegroupementCategorieCNCSubProfilRessource</v>
+      </c>
+      <c r="B51">
+        <f>import!C51</f>
+        <v>50</v>
+      </c>
+      <c r="C51">
+        <f>import!D51</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" t="str">
+        <f>import!$A52</f>
+        <v>ContexteUtilisateurCritereString</v>
+      </c>
+      <c r="B52">
+        <f>import!C52</f>
+        <v>51</v>
+      </c>
+      <c r="C52">
+        <f>import!D52</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" t="str">
+        <f>import!$A53</f>
+        <v>ContexteUtilisateurCritereStringDevisCommentaire</v>
+      </c>
+      <c r="B53">
+        <f>import!C53</f>
+        <v>52</v>
+      </c>
+      <c r="C53">
+        <f>import!D53</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" t="str">
+        <f>import!$A54</f>
+        <v>ContexteUtilisateurCritereStringDevisLibelle</v>
+      </c>
+      <c r="B54">
+        <f>import!C54</f>
+        <v>53</v>
+      </c>
+      <c r="C54">
+        <f>import!D54</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="str">
+        <f>import!$A55</f>
+        <v>ContexteUtilisateurCritereStringEnum</v>
+      </c>
+      <c r="B55">
+        <f>import!C55</f>
+        <v>54</v>
+      </c>
+      <c r="C55">
+        <f>import!D55</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="str">
+        <f>import!$A56</f>
+        <v>ContexteUtilisateurCritereStringEnumDevisCloture</v>
+      </c>
+      <c r="B56">
+        <f>import!C56</f>
+        <v>55</v>
+      </c>
+      <c r="C56">
+        <f>import!D56</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="str">
+        <f>import!$A57</f>
+        <v>ContexteUtilisateurCritereStringEnumDevisEtablissement</v>
+      </c>
+      <c r="B57">
+        <f>import!C57</f>
+        <v>56</v>
+      </c>
+      <c r="C57">
+        <f>import!D57</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" t="str">
+        <f>import!$A58</f>
+        <v>ContexteUtilisateurCritereStringEnumDevisFacture</v>
+      </c>
+      <c r="B58">
+        <f>import!C58</f>
+        <v>57</v>
+      </c>
+      <c r="C58">
+        <f>import!D58</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" t="str">
+        <f>import!$A59</f>
+        <v>ContexteUtilisateurCritereStringEnumDevisMarche</v>
+      </c>
+      <c r="B59">
+        <f>import!C59</f>
+        <v>58</v>
+      </c>
+      <c r="C59">
+        <f>import!D59</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" t="str">
+        <f>import!$A60</f>
+        <v>ContexteUtilisateurCritereStringEnumOperationConditionSelectionnees</v>
+      </c>
+      <c r="B60">
+        <f>import!C60</f>
+        <v>59</v>
+      </c>
+      <c r="C60">
+        <f>import!D60</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" t="str">
+        <f>import!$A61</f>
+        <v>ContexteUtilisateurCritereStringEnumOperationFamille</v>
+      </c>
+      <c r="B61">
+        <f>import!C61</f>
+        <v>60</v>
+      </c>
+      <c r="C61">
+        <f>import!D61</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" t="str">
+        <f>import!$A62</f>
+        <v>ContexteUtilisateurCritereStringEnumOperationFormatDiffusion</v>
+      </c>
+      <c r="B62">
+        <f>import!C62</f>
+        <v>61</v>
+      </c>
+      <c r="C62">
+        <f>import!D62</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" t="str">
+        <f>import!$A63</f>
+        <v>ContexteUtilisateurCritereStringEnumOperationFormatFabrication</v>
+      </c>
+      <c r="B63">
+        <f>import!C63</f>
+        <v>62</v>
+      </c>
+      <c r="C63">
+        <f>import!D63</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" t="str">
+        <f>import!$A64</f>
+        <v>ContexteUtilisateurCritereStringEnumOperationModaliteFacture</v>
+      </c>
+      <c r="B64">
+        <f>import!C64</f>
+        <v>63</v>
+      </c>
+      <c r="C64">
+        <f>import!D64</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" t="str">
+        <f>import!$A65</f>
+        <v>ContexteUtilisateurCritereStringEnumOperationMoyenExterne</v>
+      </c>
+      <c r="B65">
+        <f>import!C65</f>
+        <v>64</v>
+      </c>
+      <c r="C65">
+        <f>import!D65</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" t="str">
+        <f>import!$A66</f>
+        <v>ContexteUtilisateurCritereStringEnumOperationMoyenFTV</v>
+      </c>
+      <c r="B66">
+        <f>import!C66</f>
+        <v>65</v>
+      </c>
+      <c r="C66">
+        <f>import!D66</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" t="str">
+        <f>import!$A67</f>
+        <v>ContexteUtilisateurCritereStringEnumOperationTypeProduction</v>
+      </c>
+      <c r="B67">
+        <f>import!C67</f>
+        <v>66</v>
+      </c>
+      <c r="C67">
+        <f>import!D67</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" t="str">
+        <f>import!$A68</f>
+        <v>ContexteUtilisateurCritereStringEnumPhaseNom</v>
+      </c>
+      <c r="B68">
+        <f>import!C68</f>
+        <v>67</v>
+      </c>
+      <c r="C68">
+        <f>import!D68</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" t="str">
+        <f>import!$A69</f>
+        <v>ContexteUtilisateurCritereStringEnumProjetCodeDevisModalite</v>
+      </c>
+      <c r="B69">
+        <f>import!C69</f>
+        <v>68</v>
+      </c>
+      <c r="C69">
+        <f>import!D69</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" t="str">
+        <f>import!$A70</f>
+        <v>ContexteUtilisateurCritereStringEnumProjetPremierDiffuseur</v>
+      </c>
+      <c r="B70">
+        <f>import!C70</f>
+        <v>69</v>
+      </c>
+      <c r="C70">
+        <f>import!D70</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" t="str">
+        <f>import!$A71</f>
+        <v>ContexteUtilisateurCritereStringMembreEmail</v>
+      </c>
+      <c r="B71">
+        <f>import!C71</f>
+        <v>70</v>
+      </c>
+      <c r="C71">
+        <f>import!D71</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" t="str">
+        <f>import!$A72</f>
+        <v>ContexteUtilisateurCritereStringMembreNom</v>
+      </c>
+      <c r="B72">
+        <f>import!C72</f>
+        <v>71</v>
+      </c>
+      <c r="C72">
+        <f>import!D72</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" t="str">
+        <f>import!$A73</f>
+        <v>ContexteUtilisateurCritereStringMembrePrenom</v>
+      </c>
+      <c r="B73">
+        <f>import!C73</f>
+        <v>72</v>
+      </c>
+      <c r="C73">
+        <f>import!D73</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" t="str">
+        <f>import!$A74</f>
+        <v>ContexteUtilisateurCritereStringOperationAnneeDUtilisation</v>
+      </c>
+      <c r="B74">
+        <f>import!C74</f>
+        <v>73</v>
+      </c>
+      <c r="C74">
+        <f>import!D74</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" t="str">
+        <f>import!$A75</f>
+        <v>ContexteUtilisateurCritereStringOperationCommentaires</v>
+      </c>
+      <c r="B75">
+        <f>import!C75</f>
+        <v>74</v>
+      </c>
+      <c r="C75">
+        <f>import!D75</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" t="str">
+        <f>import!$A76</f>
+        <v>ContexteUtilisateurCritereStringOperationDescription</v>
+      </c>
+      <c r="B76">
+        <f>import!C76</f>
+        <v>75</v>
+      </c>
+      <c r="C76">
+        <f>import!D76</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" t="str">
+        <f>import!$A77</f>
+        <v>ContexteUtilisateurCritereStringOperationFournituresEtLivraisons</v>
+      </c>
+      <c r="B77">
+        <f>import!C77</f>
+        <v>76</v>
+      </c>
+      <c r="C77">
+        <f>import!D77</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" t="str">
+        <f>import!$A78</f>
+        <v>ContexteUtilisateurCritereStringOperationLieuRendezVous</v>
+      </c>
+      <c r="B78">
+        <f>import!C78</f>
+        <v>77</v>
+      </c>
+      <c r="C78">
+        <f>import!D78</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" t="str">
+        <f>import!$A79</f>
+        <v>ContexteUtilisateurCritereStringOperationLieuTournage</v>
+      </c>
+      <c r="B79">
+        <f>import!C79</f>
+        <v>78</v>
+      </c>
+      <c r="C79">
+        <f>import!D79</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" t="str">
+        <f>import!$A80</f>
+        <v>ContexteUtilisateurCritereStringOperationNom</v>
+      </c>
+      <c r="B80">
+        <f>import!C80</f>
+        <v>79</v>
+      </c>
+      <c r="C80">
+        <f>import!D80</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" t="str">
+        <f>import!$A81</f>
+        <v>ContexteUtilisateurCritereStringProfilRessourceNom</v>
+      </c>
+      <c r="B81">
+        <f>import!C81</f>
+        <v>80</v>
+      </c>
+      <c r="C81">
+        <f>import!D81</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" t="str">
+        <f>import!$A82</f>
+        <v>ContexteUtilisateurCritereStringProjetCommentaires</v>
+      </c>
+      <c r="B82">
+        <f>import!C82</f>
+        <v>81</v>
+      </c>
+      <c r="C82">
+        <f>import!D82</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" t="str">
+        <f>import!$A83</f>
+        <v>ContexteUtilisateurCritereStringProjetDescription</v>
+      </c>
+      <c r="B83">
+        <f>import!C83</f>
+        <v>82</v>
+      </c>
+      <c r="C83">
+        <f>import!D83</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" t="str">
+        <f>import!$A84</f>
+        <v>ContexteUtilisateurCritereStringProjetNom</v>
+      </c>
+      <c r="B84">
+        <f>import!C84</f>
+        <v>83</v>
+      </c>
+      <c r="C84">
+        <f>import!D84</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" t="str">
+        <f>import!$A85</f>
+        <v>ContexteUtilisateurCritereStringProjetSousTitre</v>
+      </c>
+      <c r="B85">
+        <f>import!C85</f>
+        <v>84</v>
+      </c>
+      <c r="C85">
+        <f>import!D85</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" t="str">
+        <f>import!$A86</f>
+        <v>ContexteUtilisateurCritereTypeActe</v>
+      </c>
+      <c r="B86">
+        <f>import!C86</f>
+        <v>85</v>
+      </c>
+      <c r="C86">
+        <f>import!D86</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" t="str">
+        <f>import!$A87</f>
+        <v>ContexteUtilisateurCritereTypeActeActe</v>
+      </c>
+      <c r="B87">
+        <f>import!C87</f>
+        <v>86</v>
+      </c>
+      <c r="C87">
+        <f>import!D87</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" t="str">
+        <f>import!$A88</f>
+        <v>ContexteUtilisateurCritereTypeChiffrage</v>
+      </c>
+      <c r="B88">
+        <f>import!C88</f>
+        <v>87</v>
+      </c>
+      <c r="C88">
+        <f>import!D88</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" t="str">
+        <f>import!$A89</f>
+        <v>ContexteUtilisateurCritereTypeRessource</v>
+      </c>
+      <c r="B89">
+        <f>import!C89</f>
+        <v>88</v>
+      </c>
+      <c r="C89">
+        <f>import!D89</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" t="str">
+        <f>import!$A90</f>
+        <v>ContexteUtilisateurCritereTypeRessourceProfilRessource</v>
+      </c>
+      <c r="B90">
+        <f>import!C90</f>
+        <v>89</v>
+      </c>
+      <c r="C90">
+        <f>import!D90</f>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" t="str">
+        <f>import!$A91</f>
+        <v>ContexteUtilisateurCritereUnitePlanification</v>
+      </c>
+      <c r="B91">
+        <f>import!C91</f>
+        <v>90</v>
+      </c>
+      <c r="C91">
+        <f>import!D91</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" t="str">
+        <f>import!$A92</f>
+        <v>ContexteUtilisateurCritereUnitePlanificationOperation</v>
+      </c>
+      <c r="B92">
+        <f>import!C92</f>
+        <v>91</v>
+      </c>
+      <c r="C92">
+        <f>import!D92</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" t="str">
+        <f>import!$A93</f>
+        <v>ContexteUtilisateurCritereUnitePlanificationPhase</v>
+      </c>
+      <c r="B93">
+        <f>import!C93</f>
+        <v>92</v>
+      </c>
+      <c r="C93">
+        <f>import!D93</f>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" t="str">
+        <f>import!$A94</f>
+        <v>ContexteUtilisateurCritereWFM_WorkflowState</v>
+      </c>
+      <c r="B94">
+        <f>import!C94</f>
+        <v>93</v>
+      </c>
+      <c r="C94">
+        <f>import!D94</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" t="str">
+        <f>import!$A95</f>
+        <v>ContexteUtilisateurCritereWFM_WorkflowStateDevis</v>
+      </c>
+      <c r="B95">
+        <f>import!C95</f>
+        <v>94</v>
+      </c>
+      <c r="C95">
+        <f>import!D95</f>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" t="str">
+        <f>import!$A96</f>
+        <v>ContexteUtilisateurFiltre</v>
+      </c>
+      <c r="B96">
+        <f>import!C96</f>
+        <v>95</v>
+      </c>
+      <c r="C96">
+        <f>import!D96</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" t="str">
+        <f>import!$A97</f>
+        <v>ContexteUtilisateurFiltreGenerale</v>
+      </c>
+      <c r="B97">
+        <f>import!C97</f>
+        <v>96</v>
+      </c>
+      <c r="C97">
+        <f>import!D97</f>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" t="str">
+        <f>import!$A98</f>
+        <v>ContexteUtilisateurFiltreMultiCriteres</v>
+      </c>
+      <c r="B98">
+        <f>import!C98</f>
+        <v>97</v>
+      </c>
+      <c r="C98">
+        <f>import!D98</f>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" t="str">
+        <f>import!$A99</f>
+        <v>ContexteUtilisateurFiltreMultiCriteresFacturation</v>
+      </c>
+      <c r="B99">
+        <f>import!C99</f>
+        <v>98</v>
+      </c>
+      <c r="C99">
+        <f>import!D99</f>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" t="str">
+        <f>import!$A100</f>
+        <v>ContexteUtilisateurFiltreMultiCriteresModelesDOperations</v>
+      </c>
+      <c r="B100">
+        <f>import!C100</f>
+        <v>99</v>
+      </c>
+      <c r="C100">
+        <f>import!D100</f>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" t="str">
+        <f>import!$A101</f>
+        <v>ContexteUtilisateurFiltreMultiCriteresProjets</v>
+      </c>
+      <c r="B101">
+        <f>import!C101</f>
+        <v>100</v>
+      </c>
+      <c r="C101">
+        <f>import!D101</f>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" t="str">
+        <f>import!$A102</f>
+        <v>ContexteUtilisateurFiltreMultiCriteresRessources</v>
+      </c>
+      <c r="B102">
+        <f>import!C102</f>
+        <v>101</v>
+      </c>
+      <c r="C102">
+        <f>import!D102</f>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" t="str">
+        <f>import!$A103</f>
+        <v>DatasetClient</v>
+      </c>
+      <c r="B103">
+        <f>import!C103</f>
+        <v>102</v>
+      </c>
+      <c r="C103">
+        <f>import!D103</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" t="str">
+        <f>import!$A104</f>
+        <v>DatasetClientJobExportObjet</v>
+      </c>
+      <c r="B104">
+        <f>import!C104</f>
+        <v>103</v>
+      </c>
+      <c r="C104">
+        <f>import!D104</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" t="str">
+        <f>import!$A105</f>
+        <v>DatasetClientMacroCollection</v>
+      </c>
+      <c r="B105">
+        <f>import!C105</f>
+        <v>104</v>
+      </c>
+      <c r="C105">
+        <f>import!D105</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" t="str">
+        <f>import!$A106</f>
+        <v>DatasetClientStatut</v>
+      </c>
+      <c r="B106">
+        <f>import!C106</f>
+        <v>105</v>
+      </c>
+      <c r="C106">
+        <f>import!D106</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" t="str">
+        <f>import!$A107</f>
+        <v>DatasetEdition</v>
+      </c>
+      <c r="B107">
+        <f>import!C107</f>
+        <v>106</v>
+      </c>
+      <c r="C107">
+        <f>import!D107</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" t="str">
+        <f>import!$A108</f>
+        <v>DatasetMaster</v>
+      </c>
+      <c r="B108">
+        <f>import!C108</f>
+        <v>107</v>
+      </c>
+      <c r="C108">
+        <f>import!D108</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" t="str">
+        <f>import!$A109</f>
+        <v>DatasetPO</v>
+      </c>
+      <c r="B109">
+        <f>import!C109</f>
+        <v>108</v>
+      </c>
+      <c r="C109">
+        <f>import!D109</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" t="str">
+        <f>import!$A110</f>
+        <v>Devis</v>
+      </c>
+      <c r="B110">
+        <f>import!C110</f>
+        <v>109</v>
+      </c>
+      <c r="C110">
+        <f>import!D110</f>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" t="str">
+        <f>import!$A111</f>
+        <v>DevisDevis</v>
+      </c>
+      <c r="B111">
+        <f>import!C111</f>
+        <v>110</v>
+      </c>
+      <c r="C111">
+        <f>import!D111</f>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" t="str">
+        <f>import!$A112</f>
+        <v>DevisFichierJoint</v>
+      </c>
+      <c r="B112">
+        <f>import!C112</f>
+        <v>111</v>
+      </c>
+      <c r="C112">
+        <f>import!D112</f>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" t="str">
+        <f>import!$A113</f>
+        <v>DevisOperation</v>
+      </c>
+      <c r="B113">
+        <f>import!C113</f>
+        <v>112</v>
+      </c>
+      <c r="C113">
+        <f>import!D113</f>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" t="str">
+        <f>import!$A114</f>
+        <v>DevisOperationLien</v>
+      </c>
+      <c r="B114">
+        <f>import!C114</f>
+        <v>113</v>
+      </c>
+      <c r="C114">
+        <f>import!D114</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" t="str">
+        <f>import!$A115</f>
+        <v>DevisOperationLienDevis</v>
+      </c>
+      <c r="B115">
+        <f>import!C115</f>
+        <v>114</v>
+      </c>
+      <c r="C115">
+        <f>import!D115</f>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" t="str">
+        <f>import!$A116</f>
+        <v>DevisOperationLienDevisVersion</v>
+      </c>
+      <c r="B116">
+        <f>import!C116</f>
+        <v>115</v>
+      </c>
+      <c r="C116">
+        <f>import!D116</f>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" t="str">
+        <f>import!$A117</f>
+        <v>DevisOperationLienProjetOperation</v>
+      </c>
+      <c r="B117">
+        <f>import!C117</f>
+        <v>116</v>
+      </c>
+      <c r="C117">
+        <f>import!D117</f>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" t="str">
+        <f>import!$A118</f>
+        <v>DevisOperationLienProjetOperationVersion</v>
+      </c>
+      <c r="B118">
+        <f>import!C118</f>
+        <v>117</v>
+      </c>
+      <c r="C118">
+        <f>import!D118</f>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" t="str">
+        <f>import!$A119</f>
+        <v>DevisOperationSelector</v>
+      </c>
+      <c r="B119">
+        <f>import!C119</f>
+        <v>118</v>
+      </c>
+      <c r="C119">
+        <f>import!D119</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" t="str">
+        <f>import!$A120</f>
+        <v>DevisOperationSelectorDevis</v>
+      </c>
+      <c r="B120">
+        <f>import!C120</f>
+        <v>119</v>
+      </c>
+      <c r="C120">
+        <f>import!D120</f>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" t="str">
+        <f>import!$A121</f>
+        <v>DevisOperationSelectorDevisVersion</v>
+      </c>
+      <c r="B121">
+        <f>import!C121</f>
+        <v>120</v>
+      </c>
+      <c r="C121">
+        <f>import!D121</f>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" t="str">
+        <f>import!$A122</f>
+        <v>DevisOperationSelectorProjetOperation</v>
+      </c>
+      <c r="B122">
+        <f>import!C122</f>
+        <v>121</v>
+      </c>
+      <c r="C122">
+        <f>import!D122</f>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" t="str">
+        <f>import!$A123</f>
+        <v>DevisOperationSelectorProjetOperationVersion</v>
+      </c>
+      <c r="B123">
+        <f>import!C123</f>
+        <v>122</v>
+      </c>
+      <c r="C123">
+        <f>import!D123</f>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" t="str">
+        <f>import!$A124</f>
+        <v>DevisOption</v>
+      </c>
+      <c r="B124">
+        <f>import!C124</f>
+        <v>123</v>
+      </c>
+      <c r="C124">
+        <f>import!D124</f>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" t="str">
+        <f>import!$A125</f>
+        <v>DevisPartie</v>
+      </c>
+      <c r="B125">
+        <f>import!C125</f>
+        <v>124</v>
+      </c>
+      <c r="C125">
+        <f>import!D125</f>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" t="str">
+        <f>import!$A126</f>
+        <v>DevisPartiePrincipale</v>
+      </c>
+      <c r="B126">
+        <f>import!C126</f>
+        <v>125</v>
+      </c>
+      <c r="C126">
+        <f>import!D126</f>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" t="str">
+        <f>import!$A127</f>
+        <v>DevisRegroupement</v>
+      </c>
+      <c r="B127">
+        <f>import!C127</f>
+        <v>126</v>
+      </c>
+      <c r="C127">
+        <f>import!D127</f>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" t="str">
+        <f>import!$A128</f>
+        <v>DevisRegroupementAbstrait</v>
+      </c>
+      <c r="B128">
+        <f>import!C128</f>
+        <v>127</v>
+      </c>
+      <c r="C128">
+        <f>import!D128</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" t="str">
+        <f>import!$A129</f>
+        <v>DevisRegroupementAggregate</v>
+      </c>
+      <c r="B129">
+        <f>import!C129</f>
+        <v>128</v>
+      </c>
+      <c r="C129">
+        <f>import!D129</f>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" t="str">
+        <f>import!$A130</f>
+        <v>DevisRegroupementCategorie</v>
+      </c>
+      <c r="B130">
+        <f>import!C130</f>
+        <v>129</v>
+      </c>
+      <c r="C130">
+        <f>import!D130</f>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" t="str">
+        <f>import!$A131</f>
+        <v>DevisRegroupementCategorieAbstrait</v>
+      </c>
+      <c r="B131">
+        <f>import!C131</f>
+        <v>130</v>
+      </c>
+      <c r="C131">
+        <f>import!D131</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" t="str">
+        <f>import!$A132</f>
+        <v>DevisRegroupementLigne</v>
+      </c>
+      <c r="B132">
+        <f>import!C132</f>
+        <v>131</v>
+      </c>
+      <c r="C132">
+        <f>import!D132</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" t="str">
+        <f>import!$A133</f>
+        <v>DevisRegroupementSelectionne</v>
+      </c>
+      <c r="B133">
+        <f>import!C133</f>
+        <v>132</v>
+      </c>
+      <c r="C133">
+        <f>import!D133</f>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" t="str">
+        <f>import!$A134</f>
+        <v>DevisVersion</v>
+      </c>
+      <c r="B134">
+        <f>import!C134</f>
+        <v>133</v>
+      </c>
+      <c r="C134">
+        <f>import!D134</f>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" t="str">
+        <f>import!$A135</f>
+        <v>EditionDevisChapitre</v>
+      </c>
+      <c r="B135">
+        <f>import!C135</f>
+        <v>134</v>
+      </c>
+      <c r="C135">
+        <f>import!D135</f>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" t="str">
+        <f>import!$A136</f>
+        <v>EditionDevisOperations</v>
+      </c>
+      <c r="B136">
+        <f>import!C136</f>
+        <v>135</v>
+      </c>
+      <c r="C136">
+        <f>import!D136</f>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" t="str">
+        <f>import!$A137</f>
+        <v>EditionOperationDescriptif</v>
+      </c>
+      <c r="B137">
+        <f>import!C137</f>
+        <v>136</v>
+      </c>
+      <c r="C137">
+        <f>import!D137</f>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" t="str">
+        <f>import!$A138</f>
+        <v>EditionProjetOperations</v>
+      </c>
+      <c r="B138">
+        <f>import!C138</f>
+        <v>137</v>
+      </c>
+      <c r="C138">
+        <f>import!D138</f>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" t="str">
+        <f>import!$A139</f>
+        <v>EditionStatut</v>
+      </c>
+      <c r="B139">
+        <f>import!C139</f>
+        <v>138</v>
+      </c>
+      <c r="C139">
+        <f>import!D139</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" t="str">
+        <f>import!$A140</f>
+        <v>EnumerationFluxFacturation</v>
+      </c>
+      <c r="B140">
+        <f>import!C140</f>
+        <v>139</v>
+      </c>
+      <c r="C140">
+        <f>import!D140</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" t="str">
+        <f>import!$A141</f>
+        <v>EnumerationFonction</v>
+      </c>
+      <c r="B141">
+        <f>import!C141</f>
+        <v>140</v>
+      </c>
+      <c r="C141">
+        <f>import!D141</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142" t="str">
+        <f>import!$A142</f>
+        <v>EnumerationMarche</v>
+      </c>
+      <c r="B142">
+        <f>import!C142</f>
+        <v>141</v>
+      </c>
+      <c r="C142">
+        <f>import!D142</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143" t="str">
+        <f>import!$A143</f>
+        <v>EnumerationTableauBordPriorite</v>
+      </c>
+      <c r="B143">
+        <f>import!C143</f>
+        <v>142</v>
+      </c>
+      <c r="C143">
+        <f>import!D143</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144" t="str">
+        <f>import!$A144</f>
+        <v>EnumerationTypeCout</v>
+      </c>
+      <c r="B144">
+        <f>import!C144</f>
+        <v>143</v>
+      </c>
+      <c r="C144">
+        <f>import!D144</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" t="str">
+        <f>import!$A145</f>
+        <v>ExportActeur</v>
+      </c>
+      <c r="B145">
+        <f>import!C145</f>
+        <v>144</v>
+      </c>
+      <c r="C145">
+        <f>import!D145</f>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" t="str">
+        <f>import!$A146</f>
+        <v>ExportClient</v>
+      </c>
+      <c r="B146">
+        <f>import!C146</f>
+        <v>145</v>
+      </c>
+      <c r="C146">
+        <f>import!D146</f>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" t="str">
+        <f>import!$A147</f>
+        <v>ExportClientFournisseur</v>
+      </c>
+      <c r="B147">
+        <f>import!C147</f>
+        <v>146</v>
+      </c>
+      <c r="C147">
+        <f>import!D147</f>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" t="str">
+        <f>import!$A148</f>
+        <v>ExportDevis</v>
+      </c>
+      <c r="B148">
+        <f>import!C148</f>
+        <v>147</v>
+      </c>
+      <c r="C148">
+        <f>import!D148</f>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" t="str">
+        <f>import!$A149</f>
+        <v>ExportDevisDetail</v>
+      </c>
+      <c r="B149">
+        <f>import!C149</f>
+        <v>148</v>
+      </c>
+      <c r="C149">
+        <f>import!D149</f>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150" t="str">
+        <f>import!$A150</f>
+        <v>ExportDevisElement</v>
+      </c>
+      <c r="B150">
+        <f>import!C150</f>
+        <v>149</v>
+      </c>
+      <c r="C150">
+        <f>import!D150</f>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151" t="str">
+        <f>import!$A151</f>
+        <v>ExportDevisLigneAbstraite</v>
+      </c>
+      <c r="B151">
+        <f>import!C151</f>
+        <v>150</v>
+      </c>
+      <c r="C151">
+        <f>import!D151</f>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152" t="str">
+        <f>import!$A152</f>
+        <v>ExportDevisLigneCout</v>
+      </c>
+      <c r="B152">
+        <f>import!C152</f>
+        <v>151</v>
+      </c>
+      <c r="C152">
+        <f>import!D152</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153" t="str">
+        <f>import!$A153</f>
+        <v>ExportDevisOperation</v>
+      </c>
+      <c r="B153">
+        <f>import!C153</f>
+        <v>152</v>
+      </c>
+      <c r="C153">
+        <f>import!D153</f>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154" t="str">
+        <f>import!$A154</f>
+        <v>ExportDevisRemise</v>
+      </c>
+      <c r="B154">
+        <f>import!C154</f>
+        <v>153</v>
+      </c>
+      <c r="C154">
+        <f>import!D154</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155" t="str">
+        <f>import!$A155</f>
+        <v>ExportFacture</v>
+      </c>
+      <c r="B155">
+        <f>import!C155</f>
+        <v>154</v>
+      </c>
+      <c r="C155">
+        <f>import!D155</f>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156" t="str">
+        <f>import!$A156</f>
+        <v>ExportFactureElement</v>
+      </c>
+      <c r="B156">
+        <f>import!C156</f>
+        <v>155</v>
+      </c>
+      <c r="C156">
+        <f>import!D156</f>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157" t="str">
+        <f>import!$A157</f>
+        <v>ExportFactureLigne</v>
+      </c>
+      <c r="B157">
+        <f>import!C157</f>
+        <v>156</v>
+      </c>
+      <c r="C157">
+        <f>import!D157</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158" t="str">
+        <f>import!$A158</f>
+        <v>ExportFacturePartielle</v>
+      </c>
+      <c r="B158">
+        <f>import!C158</f>
+        <v>157</v>
+      </c>
+      <c r="C158">
+        <f>import!D158</f>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159" t="str">
+        <f>import!$A159</f>
+        <v>ExportFournisseur</v>
+      </c>
+      <c r="B159">
+        <f>import!C159</f>
+        <v>158</v>
+      </c>
+      <c r="C159">
+        <f>import!D159</f>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160" t="str">
+        <f>import!$A160</f>
+        <v>ExportOperation</v>
+      </c>
+      <c r="B160">
+        <f>import!C160</f>
+        <v>159</v>
+      </c>
+      <c r="C160">
+        <f>import!D160</f>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161" t="str">
+        <f>import!$A161</f>
+        <v>ExportOperationActe</v>
+      </c>
+      <c r="B161">
+        <f>import!C161</f>
+        <v>160</v>
+      </c>
+      <c r="C161">
+        <f>import!D161</f>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162" t="str">
+        <f>import!$A162</f>
+        <v>ExportOperationBesoinRessource</v>
+      </c>
+      <c r="B162">
+        <f>import!C162</f>
+        <v>161</v>
+      </c>
+      <c r="C162">
+        <f>import!D162</f>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A163" t="str">
+        <f>import!$A163</f>
+        <v>ExportOperationDetail</v>
+      </c>
+      <c r="B163">
+        <f>import!C163</f>
+        <v>162</v>
+      </c>
+      <c r="C163">
+        <f>import!D163</f>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A164" t="str">
+        <f>import!$A164</f>
+        <v>ExportOperationEnveloppe</v>
+      </c>
+      <c r="B164">
+        <f>import!C164</f>
+        <v>163</v>
+      </c>
+      <c r="C164">
+        <f>import!D164</f>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A165" t="str">
+        <f>import!$A165</f>
+        <v>ExportOperationEnveloppeAbstraite</v>
+      </c>
+      <c r="B165">
+        <f>import!C165</f>
+        <v>164</v>
+      </c>
+      <c r="C165">
+        <f>import!D165</f>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A166" t="str">
+        <f>import!$A166</f>
+        <v>ExportOperationEnveloppeOperation</v>
+      </c>
+      <c r="B166">
+        <f>import!C166</f>
+        <v>165</v>
+      </c>
+      <c r="C166">
+        <f>import!D166</f>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A167" t="str">
+        <f>import!$A167</f>
+        <v>ExportOperationFraisExterne</v>
+      </c>
+      <c r="B167">
+        <f>import!C167</f>
+        <v>166</v>
+      </c>
+      <c r="C167">
+        <f>import!D167</f>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A168" t="str">
+        <f>import!$A168</f>
+        <v>ExportOperationLigneSupport</v>
+      </c>
+      <c r="B168">
+        <f>import!C168</f>
+        <v>167</v>
+      </c>
+      <c r="C168">
+        <f>import!D168</f>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A169" t="str">
+        <f>import!$A169</f>
+        <v>ExportOperationPhase</v>
+      </c>
+      <c r="B169">
+        <f>import!C169</f>
+        <v>168</v>
+      </c>
+      <c r="C169">
+        <f>import!D169</f>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A170" t="str">
+        <f>import!$A170</f>
+        <v>ExportOperationPhaseAbstraite</v>
+      </c>
+      <c r="B170">
+        <f>import!C170</f>
+        <v>169</v>
+      </c>
+      <c r="C170">
+        <f>import!D170</f>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A171" t="str">
+        <f>import!$A171</f>
+        <v>ExportProjet</v>
+      </c>
+      <c r="B171">
+        <f>import!C171</f>
+        <v>170</v>
+      </c>
+      <c r="C171">
+        <f>import!D171</f>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A172" t="str">
+        <f>import!$A172</f>
+        <v>ExportProjetMembre</v>
+      </c>
+      <c r="B172">
+        <f>import!C172</f>
+        <v>171</v>
+      </c>
+      <c r="C172">
+        <f>import!D172</f>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A173" t="str">
+        <f>import!$A173</f>
+        <v>ExportProjetOperation</v>
+      </c>
+      <c r="B173">
+        <f>import!C173</f>
+        <v>172</v>
+      </c>
+      <c r="C173">
+        <f>import!D173</f>
+        <v>207</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A174" t="str">
+        <f>import!$A174</f>
+        <v>ExportRegroupementCategorie</v>
+      </c>
+      <c r="B174">
+        <f>import!C174</f>
+        <v>173</v>
+      </c>
+      <c r="C174">
+        <f>import!D174</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A175" t="str">
+        <f>import!$A175</f>
+        <v>ExportSysteme</v>
+      </c>
+      <c r="B175">
+        <f>import!C175</f>
+        <v>174</v>
+      </c>
+      <c r="C175">
+        <f>import!D175</f>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A176" t="str">
+        <f>import!$A176</f>
+        <v>ExportTypeActe</v>
+      </c>
+      <c r="B176">
+        <f>import!C176</f>
+        <v>175</v>
+      </c>
+      <c r="C176">
+        <f>import!D176</f>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A177" t="str">
+        <f>import!$A177</f>
+        <v>Facture</v>
+      </c>
+      <c r="B177">
+        <f>import!C177</f>
+        <v>176</v>
+      </c>
+      <c r="C177">
+        <f>import!D177</f>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A178" t="str">
+        <f>import!$A178</f>
+        <v>FactureDevis</v>
+      </c>
+      <c r="B178">
+        <f>import!C178</f>
+        <v>177</v>
+      </c>
+      <c r="C178">
+        <f>import!D178</f>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A179" t="str">
+        <f>import!$A179</f>
+        <v>FactureDevisVersion</v>
+      </c>
+      <c r="B179">
+        <f>import!C179</f>
+        <v>178</v>
+      </c>
+      <c r="C179">
+        <f>import!D179</f>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A180" t="str">
+        <f>import!$A180</f>
+        <v>FactureExercice</v>
+      </c>
+      <c r="B180">
+        <f>import!C180</f>
+        <v>179</v>
+      </c>
+      <c r="C180">
+        <f>import!D180</f>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A181" t="str">
+        <f>import!$A181</f>
+        <v>FacturePeriode</v>
+      </c>
+      <c r="B181">
+        <f>import!C181</f>
+        <v>180</v>
+      </c>
+      <c r="C181">
+        <f>import!D181</f>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A182" t="str">
+        <f>import!$A182</f>
+        <v>FacturePeriodeFlux</v>
+      </c>
+      <c r="B182">
+        <f>import!C182</f>
+        <v>181</v>
+      </c>
+      <c r="C182">
+        <f>import!D182</f>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A183" t="str">
+        <f>import!$A183</f>
+        <v>FactureVersion</v>
+      </c>
+      <c r="B183">
+        <f>import!C183</f>
+        <v>182</v>
+      </c>
+      <c r="C183">
+        <f>import!D183</f>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A184" t="str">
+        <f>import!$A184</f>
+        <v>FichierJoint</v>
+      </c>
+      <c r="B184">
+        <f>import!C184</f>
+        <v>183</v>
+      </c>
+      <c r="C184">
+        <f>import!D184</f>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A185" t="str">
+        <f>import!$A185</f>
+        <v>FTV_Acteur</v>
+      </c>
+      <c r="B185">
+        <f>import!C185</f>
+        <v>184</v>
+      </c>
+      <c r="C185">
+        <f>import!D185</f>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A186" t="str">
+        <f>import!$A186</f>
+        <v>FTV_ActeurAncetreLien</v>
+      </c>
+      <c r="B186">
+        <f>import!C186</f>
+        <v>185</v>
+      </c>
+      <c r="C186">
+        <f>import!D186</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A187" t="str">
+        <f>import!$A187</f>
+        <v>FTV_ActeurCodeProduit</v>
+      </c>
+      <c r="B187">
+        <f>import!C187</f>
+        <v>186</v>
+      </c>
+      <c r="C187">
+        <f>import!D187</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A188" t="str">
+        <f>import!$A188</f>
+        <v>FTV_ActeurCodeProduitFourchette</v>
+      </c>
+      <c r="B188">
+        <f>import!C188</f>
+        <v>187</v>
+      </c>
+      <c r="C188">
+        <f>import!D188</f>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A189" t="str">
+        <f>import!$A189</f>
+        <v>FTV_ActeurMarche</v>
+      </c>
+      <c r="B189">
+        <f>import!C189</f>
+        <v>188</v>
+      </c>
+      <c r="C189">
+        <f>import!D189</f>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A190" t="str">
+        <f>import!$A190</f>
+        <v>FTV_ActeurProfilRessource</v>
+      </c>
+      <c r="B190">
+        <f>import!C190</f>
+        <v>189</v>
+      </c>
+      <c r="C190">
+        <f>import!D190</f>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A191" t="str">
+        <f>import!$A191</f>
+        <v>FTV_ActeurUO_Centre</v>
+      </c>
+      <c r="B191">
+        <f>import!C191</f>
+        <v>190</v>
+      </c>
+      <c r="C191">
+        <f>import!D191</f>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A192" t="str">
+        <f>import!$A192</f>
+        <v>FTV_Client</v>
+      </c>
+      <c r="B192">
+        <f>import!C192</f>
+        <v>191</v>
+      </c>
+      <c r="C192">
+        <f>import!D192</f>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A193" t="str">
+        <f>import!$A193</f>
+        <v>FTV_Fournisseur</v>
+      </c>
+      <c r="B193">
+        <f>import!C193</f>
+        <v>192</v>
+      </c>
+      <c r="C193">
+        <f>import!D193</f>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A194" t="str">
+        <f>import!$A194</f>
+        <v>FTV_FournisseurClient</v>
+      </c>
+      <c r="B194">
+        <f>import!C194</f>
+        <v>193</v>
+      </c>
+      <c r="C194">
+        <f>import!D194</f>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A195" t="str">
+        <f>import!$A195</f>
+        <v>FTV_FournisseurTypeActe</v>
+      </c>
+      <c r="B195">
+        <f>import!C195</f>
+        <v>194</v>
+      </c>
+      <c r="C195">
+        <f>import!D195</f>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A196" t="str">
+        <f>import!$A196</f>
+        <v>ImportCosting</v>
+      </c>
+      <c r="B196">
+        <f>import!C196</f>
+        <v>195</v>
+      </c>
+      <c r="C196">
+        <f>import!D196</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A197" t="str">
+        <f>import!$A197</f>
+        <v>ImportCostingBareme</v>
+      </c>
+      <c r="B197">
+        <f>import!C197</f>
+        <v>196</v>
+      </c>
+      <c r="C197">
+        <f>import!D197</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A198" t="str">
+        <f>import!$A198</f>
+        <v>ImportCostingBaremeLigneBesoinRessource</v>
+      </c>
+      <c r="B198">
+        <f>import!C198</f>
+        <v>197</v>
+      </c>
+      <c r="C198">
+        <f>import!D198</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A199" t="str">
+        <f>import!$A199</f>
+        <v>ImportCostingBaremeLigneForfait</v>
+      </c>
+      <c r="B199">
+        <f>import!C199</f>
+        <v>198</v>
+      </c>
+      <c r="C199">
+        <f>import!D199</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A200" t="str">
+        <f>import!$A200</f>
+        <v>JourSysteme</v>
+      </c>
+      <c r="B200">
+        <f>import!C200</f>
+        <v>199</v>
+      </c>
+      <c r="C200">
+        <f>import!D200</f>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A201" t="str">
+        <f>import!$A201</f>
+        <v>Localisation</v>
+      </c>
+      <c r="B201">
+        <f>import!C201</f>
+        <v>200</v>
+      </c>
+      <c r="C201">
+        <f>import!D201</f>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A202" t="str">
+        <f>import!$A202</f>
+        <v>MacroCollection</v>
+      </c>
+      <c r="B202">
+        <f>import!C202</f>
+        <v>201</v>
+      </c>
+      <c r="C202">
+        <f>import!D202</f>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A203" t="str">
+        <f>import!$A203</f>
+        <v>MacroCollectionStatut</v>
+      </c>
+      <c r="B203">
+        <f>import!C203</f>
+        <v>202</v>
+      </c>
+      <c r="C203">
+        <f>import!D203</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A204" t="str">
+        <f>import!$A204</f>
+        <v>MacroCollectionSysteme</v>
+      </c>
+      <c r="B204">
+        <f>import!C204</f>
+        <v>203</v>
+      </c>
+      <c r="C204">
+        <f>import!D204</f>
+        <v>201</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A205" t="str">
+        <f>import!$A205</f>
+        <v>MacroCollectionUnitePlanification</v>
+      </c>
+      <c r="B205">
+        <f>import!C205</f>
+        <v>204</v>
+      </c>
+      <c r="C205">
+        <f>import!D205</f>
+        <v>201</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A206" t="str">
+        <f>import!$A206</f>
+        <v>MetierMarche</v>
+      </c>
+      <c r="B206">
+        <f>import!C206</f>
+        <v>205</v>
+      </c>
+      <c r="C206">
+        <f>import!D206</f>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A207" t="str">
+        <f>import!$A207</f>
+        <v>ObjetApplicatif</v>
+      </c>
+      <c r="B207">
+        <f>import!C207</f>
+        <v>206</v>
+      </c>
+      <c r="C207">
+        <f>import!D207</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A208" t="str">
+        <f>import!$A208</f>
+        <v>ObjetExportDetail</v>
+      </c>
+      <c r="B208">
+        <f>import!C208</f>
+        <v>207</v>
+      </c>
+      <c r="C208">
+        <f>import!D208</f>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A209" t="str">
+        <f>import!$A209</f>
+        <v>ObjetExporte</v>
+      </c>
+      <c r="B209">
+        <f>import!C209</f>
+        <v>208</v>
+      </c>
+      <c r="C209">
+        <f>import!D209</f>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A210" t="str">
+        <f>import!$A210</f>
+        <v>ObjetExporteAbstrait</v>
+      </c>
+      <c r="B210">
+        <f>import!C210</f>
+        <v>209</v>
+      </c>
+      <c r="C210">
+        <f>import!D210</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A211" t="str">
+        <f>import!$A211</f>
+        <v>ObjetMacro</v>
+      </c>
+      <c r="B211">
+        <f>import!C211</f>
+        <v>210</v>
+      </c>
+      <c r="C211">
+        <f>import!D211</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A212" t="str">
+        <f>import!$A212</f>
+        <v>ObjetMacroModification</v>
+      </c>
+      <c r="B212">
+        <f>import!C212</f>
+        <v>211</v>
+      </c>
+      <c r="C212">
+        <f>import!D212</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A213" t="str">
+        <f>import!$A213</f>
+        <v>ObjetMacroStatut</v>
+      </c>
+      <c r="B213">
+        <f>import!C213</f>
+        <v>212</v>
+      </c>
+      <c r="C213">
+        <f>import!D213</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A214" t="str">
+        <f>import!$A214</f>
+        <v>ObjetMacroStatutCollection</v>
+      </c>
+      <c r="B214">
+        <f>import!C214</f>
+        <v>213</v>
+      </c>
+      <c r="C214">
+        <f>import!D214</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A215" t="str">
+        <f>import!$A215</f>
+        <v>ObjetMacroStatutDataset</v>
+      </c>
+      <c r="B215">
+        <f>import!C215</f>
+        <v>214</v>
+      </c>
+      <c r="C215">
+        <f>import!D215</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A216" t="str">
+        <f>import!$A216</f>
+        <v>ObjetMicro</v>
+      </c>
+      <c r="B216">
+        <f>import!C216</f>
+        <v>215</v>
+      </c>
+      <c r="C216">
+        <f>import!D216</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A217" t="str">
+        <f>import!$A217</f>
+        <v>ObjetVersion</v>
+      </c>
+      <c r="B217">
+        <f>import!C217</f>
+        <v>216</v>
+      </c>
+      <c r="C217">
+        <f>import!D217</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A218" t="str">
+        <f>import!$A218</f>
+        <v>Operation</v>
+      </c>
+      <c r="B218">
+        <f>import!C218</f>
+        <v>217</v>
+      </c>
+      <c r="C218">
+        <f>import!D218</f>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A219" t="str">
+        <f>import!$A219</f>
+        <v>OperationVersion</v>
+      </c>
+      <c r="B219">
+        <f>import!C219</f>
+        <v>218</v>
+      </c>
+      <c r="C219">
+        <f>import!D219</f>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A220" t="str">
+        <f>import!$A220</f>
+        <v>PerimetreActeur</v>
+      </c>
+      <c r="B220">
+        <f>import!C220</f>
+        <v>219</v>
+      </c>
+      <c r="C220">
+        <f>import!D220</f>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A221" t="str">
+        <f>import!$A221</f>
+        <v>PerimetreUniteOrganisation</v>
+      </c>
+      <c r="B221">
+        <f>import!C221</f>
+        <v>220</v>
+      </c>
+      <c r="C221">
+        <f>import!D221</f>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A222" t="str">
+        <f>import!$A222</f>
+        <v>PerimetreUnitePlanification</v>
+      </c>
+      <c r="B222">
+        <f>import!C222</f>
+        <v>221</v>
+      </c>
+      <c r="C222">
+        <f>import!D222</f>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A223" t="str">
+        <f>import!$A223</f>
+        <v>ProfilRessource</v>
+      </c>
+      <c r="B223">
+        <f>import!C223</f>
+        <v>222</v>
+      </c>
+      <c r="C223">
+        <f>import!D223</f>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A224" t="str">
+        <f>import!$A224</f>
+        <v>Projet</v>
+      </c>
+      <c r="B224">
+        <f>import!C224</f>
+        <v>223</v>
+      </c>
+      <c r="C224">
+        <f>import!D224</f>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A225" t="str">
+        <f>import!$A225</f>
+        <v>ProjetDevis</v>
+      </c>
+      <c r="B225">
+        <f>import!C225</f>
+        <v>224</v>
+      </c>
+      <c r="C225">
+        <f>import!D225</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A226" t="str">
+        <f>import!$A226</f>
+        <v>ProjetOperation</v>
+      </c>
+      <c r="B226">
+        <f>import!C226</f>
+        <v>225</v>
+      </c>
+      <c r="C226">
+        <f>import!D226</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A227" t="str">
+        <f>import!$A227</f>
+        <v>ProjetOperationVersion</v>
+      </c>
+      <c r="B227">
+        <f>import!C227</f>
+        <v>226</v>
+      </c>
+      <c r="C227">
+        <f>import!D227</f>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A228" t="str">
+        <f>import!$A228</f>
+        <v>ProjetVersion</v>
+      </c>
+      <c r="B228">
+        <f>import!C228</f>
+        <v>227</v>
+      </c>
+      <c r="C228">
+        <f>import!D228</f>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A229" t="str">
+        <f>import!$A229</f>
+        <v>RangeRefNrs</v>
+      </c>
+      <c r="B229">
+        <f>import!C229</f>
+        <v>228</v>
+      </c>
+      <c r="C229">
+        <f>import!D229</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A230" t="str">
+        <f>import!$A230</f>
+        <v>Referentiel</v>
+      </c>
+      <c r="B230">
+        <f>import!C230</f>
+        <v>229</v>
+      </c>
+      <c r="C230">
+        <f>import!D230</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A231" t="str">
+        <f>import!$A231</f>
+        <v>RegroupementCategorie</v>
+      </c>
+      <c r="B231">
+        <f>import!C231</f>
+        <v>230</v>
+      </c>
+      <c r="C231">
+        <f>import!D231</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A232" t="str">
+        <f>import!$A232</f>
+        <v>RegroupementCategorieAggregate</v>
+      </c>
+      <c r="B232">
+        <f>import!C232</f>
+        <v>231</v>
+      </c>
+      <c r="C232">
+        <f>import!D232</f>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A233" t="str">
+        <f>import!$A233</f>
+        <v>RegroupementCategorieAggregateGrandTotal</v>
+      </c>
+      <c r="B233">
+        <f>import!C233</f>
+        <v>232</v>
+      </c>
+      <c r="C233">
+        <f>import!D233</f>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A234" t="str">
+        <f>import!$A234</f>
+        <v>RegroupementCategorieAggregateSousTotal</v>
+      </c>
+      <c r="B234">
+        <f>import!C234</f>
+        <v>233</v>
+      </c>
+      <c r="C234">
+        <f>import!D234</f>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A235" t="str">
+        <f>import!$A235</f>
+        <v>RegroupementCategorieAggregateTotalChapitre</v>
+      </c>
+      <c r="B235">
+        <f>import!C235</f>
+        <v>234</v>
+      </c>
+      <c r="C235">
+        <f>import!D235</f>
+        <v>231</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A236" t="str">
+        <f>import!$A236</f>
+        <v>RegroupementCategorieCNC</v>
+      </c>
+      <c r="B236">
+        <f>import!C236</f>
+        <v>235</v>
+      </c>
+      <c r="C236">
+        <f>import!D236</f>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A237" t="str">
+        <f>import!$A237</f>
+        <v>RegroupementCategorieCNCInter</v>
+      </c>
+      <c r="B237">
+        <f>import!C237</f>
+        <v>236</v>
+      </c>
+      <c r="C237">
+        <f>import!D237</f>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A238" t="str">
+        <f>import!$A238</f>
+        <v>RegroupementCategorieCNCSub</v>
+      </c>
+      <c r="B238">
+        <f>import!C238</f>
+        <v>237</v>
+      </c>
+      <c r="C238">
+        <f>import!D238</f>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A239" t="str">
+        <f>import!$A239</f>
+        <v>RegroupementCategorieCNCSuper</v>
+      </c>
+      <c r="B239">
+        <f>import!C239</f>
+        <v>238</v>
+      </c>
+      <c r="C239">
+        <f>import!D239</f>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A240" t="str">
+        <f>import!$A240</f>
+        <v>RegroupementCategorieCommon</v>
+      </c>
+      <c r="B240">
+        <f>import!C240</f>
+        <v>239</v>
+      </c>
+      <c r="C240">
+        <f>import!D240</f>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A241" t="str">
+        <f>import!$A241</f>
+        <v>RegroupementCategorieCommonCharges</v>
+      </c>
+      <c r="B241">
+        <f>import!C241</f>
+        <v>240</v>
+      </c>
+      <c r="C241">
+        <f>import!D241</f>
+        <v>239</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A242" t="str">
+        <f>import!$A242</f>
+        <v>RegroupementCategorieCommonFraisGeneraux</v>
+      </c>
+      <c r="B242">
+        <f>import!C242</f>
+        <v>241</v>
+      </c>
+      <c r="C242">
+        <f>import!D242</f>
+        <v>239</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A243" t="str">
+        <f>import!$A243</f>
+        <v>RegroupementCategorieCommonOptions</v>
+      </c>
+      <c r="B243">
+        <f>import!C243</f>
+        <v>242</v>
+      </c>
+      <c r="C243">
+        <f>import!D243</f>
+        <v>239</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A244" t="str">
+        <f>import!$A244</f>
+        <v>RegroupementCategorieCommonRemiseGenerale</v>
+      </c>
+      <c r="B244">
+        <f>import!C244</f>
+        <v>243</v>
+      </c>
+      <c r="C244">
+        <f>import!D244</f>
+        <v>239</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A245" t="str">
+        <f>import!$A245</f>
+        <v>RegroupementCategorieCommonRessourceImprevus</v>
+      </c>
+      <c r="B245">
+        <f>import!C245</f>
+        <v>244</v>
+      </c>
+      <c r="C245">
+        <f>import!D245</f>
+        <v>239</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A246" t="str">
+        <f>import!$A246</f>
+        <v>RegroupementCategorieTypeDeRessource</v>
+      </c>
+      <c r="B246">
+        <f>import!C246</f>
+        <v>245</v>
+      </c>
+      <c r="C246">
+        <f>import!D246</f>
+        <v>246</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A247" t="str">
+        <f>import!$A247</f>
+        <v>RegroupementCategorieTypeDeRessourceAbstrait</v>
+      </c>
+      <c r="B247">
+        <f>import!C247</f>
+        <v>246</v>
+      </c>
+      <c r="C247">
+        <f>import!D247</f>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A248" t="str">
+        <f>import!$A248</f>
+        <v>RegroupementCategorieTypeDeRessourceFraisExternes</v>
+      </c>
+      <c r="B248">
+        <f>import!C248</f>
+        <v>247</v>
+      </c>
+      <c r="C248">
+        <f>import!D248</f>
+        <v>246</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A249" t="str">
+        <f>import!$A249</f>
+        <v>RegroupementLigneDevis</v>
+      </c>
+      <c r="B249">
+        <f>import!C249</f>
+        <v>248</v>
+      </c>
+      <c r="C249">
+        <f>import!D249</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A250" t="str">
+        <f>import!$A250</f>
+        <v>RegroupementParChapitreCNC</v>
+      </c>
+      <c r="B250">
+        <f>import!C250</f>
+        <v>249</v>
+      </c>
+      <c r="C250">
+        <f>import!D250</f>
+        <v>248</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A251" t="str">
+        <f>import!$A251</f>
+        <v>RegroupementParTypeDeResources</v>
+      </c>
+      <c r="B251">
+        <f>import!C251</f>
+        <v>250</v>
+      </c>
+      <c r="C251">
+        <f>import!D251</f>
+        <v>248</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A252" t="str">
+        <f>import!$A252</f>
+        <v>RequeteVTOM</v>
+      </c>
+      <c r="B252">
+        <f>import!C252</f>
+        <v>251</v>
+      </c>
+      <c r="C252">
+        <f>import!D252</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A253" t="str">
+        <f>import!$A253</f>
+        <v>RequeteVTOMDatasetClient</v>
+      </c>
+      <c r="B253">
+        <f>import!C253</f>
+        <v>252</v>
+      </c>
+      <c r="C253">
+        <f>import!D253</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A254" t="str">
+        <f>import!$A254</f>
+        <v>Resource</v>
+      </c>
+      <c r="B254">
+        <f>import!C254</f>
+        <v>253</v>
+      </c>
+      <c r="C254">
+        <f>import!D254</f>
+        <v>206</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A255" t="str">
+        <f>import!$A255</f>
+        <v>RollOutPattern</v>
+      </c>
+      <c r="B255">
+        <f>import!C255</f>
+        <v>254</v>
+      </c>
+      <c r="C255">
+        <f>import!D255</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A256" t="str">
+        <f>import!$A256</f>
+        <v>RollOutPatternOwner</v>
+      </c>
+      <c r="B256">
+        <f>import!C256</f>
+        <v>255</v>
+      </c>
+      <c r="C256">
+        <f>import!D256</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A257" t="str">
+        <f>import!$A257</f>
+        <v>RollOutPatternUser</v>
+      </c>
+      <c r="B257">
+        <f>import!C257</f>
+        <v>256</v>
+      </c>
+      <c r="C257">
+        <f>import!D257</f>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A258" t="str">
+        <f>import!$A258</f>
+        <v>RollOutPatternWeekly</v>
+      </c>
+      <c r="B258">
+        <f>import!C258</f>
+        <v>257</v>
+      </c>
+      <c r="C258">
+        <f>import!D258</f>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A259" t="str">
+        <f>import!$A259</f>
+        <v>SchedulerAbstract</v>
+      </c>
+      <c r="B259">
+        <f>import!C259</f>
+        <v>258</v>
+      </c>
+      <c r="C259">
+        <f>import!D259</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A260" t="str">
+        <f>import!$A260</f>
+        <v>SchedulerSIG</v>
+      </c>
+      <c r="B260">
+        <f>import!C260</f>
+        <v>259</v>
+      </c>
+      <c r="C260">
+        <f>import!D260</f>
+        <v>258</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A261" t="str">
+        <f>import!$A261</f>
+        <v>SchedulerSIRH</v>
+      </c>
+      <c r="B261">
+        <f>import!C261</f>
+        <v>260</v>
+      </c>
+      <c r="C261">
+        <f>import!D261</f>
+        <v>258</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A262" t="str">
+        <f>import!$A262</f>
+        <v>SIGCentre</v>
+      </c>
+      <c r="B262">
+        <f>import!C262</f>
+        <v>261</v>
+      </c>
+      <c r="C262">
+        <f>import!D262</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A263" t="str">
+        <f>import!$A263</f>
+        <v>SIGClients</v>
+      </c>
+      <c r="B263">
+        <f>import!C263</f>
+        <v>262</v>
+      </c>
+      <c r="C263">
+        <f>import!D263</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A264" t="str">
+        <f>import!$A264</f>
+        <v>SIGCodeActivite</v>
+      </c>
+      <c r="B264">
+        <f>import!C264</f>
+        <v>263</v>
+      </c>
+      <c r="C264">
+        <f>import!D264</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A265" t="str">
+        <f>import!$A265</f>
+        <v>SIGCodeAntenne</v>
+      </c>
+      <c r="B265">
+        <f>import!C265</f>
+        <v>264</v>
+      </c>
+      <c r="C265">
+        <f>import!D265</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A266" t="str">
+        <f>import!$A266</f>
+        <v>SIGCodeProduit</v>
+      </c>
+      <c r="B266">
+        <f>import!C266</f>
+        <v>265</v>
+      </c>
+      <c r="C266">
+        <f>import!D266</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A267" t="str">
+        <f>import!$A267</f>
+        <v>SIGMetierMarche</v>
+      </c>
+      <c r="B267">
+        <f>import!C267</f>
+        <v>266</v>
+      </c>
+      <c r="C267">
+        <f>import!D267</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A268" t="str">
+        <f>import!$A268</f>
+        <v>SIRHCollaborateur</v>
+      </c>
+      <c r="B268">
+        <f>import!C268</f>
+        <v>267</v>
+      </c>
+      <c r="C268">
+        <f>import!D268</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A269" t="str">
+        <f>import!$A269</f>
+        <v>SIRHFonction</v>
+      </c>
+      <c r="B269">
+        <f>import!C269</f>
+        <v>268</v>
+      </c>
+      <c r="C269">
+        <f>import!D269</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A270" t="str">
+        <f>import!$A270</f>
+        <v>SIRHMetier</v>
+      </c>
+      <c r="B270">
+        <f>import!C270</f>
+        <v>269</v>
+      </c>
+      <c r="C270">
+        <f>import!D270</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A271" t="str">
+        <f>import!$A271</f>
+        <v>StructureActe</v>
+      </c>
+      <c r="B271">
+        <f>import!C271</f>
+        <v>270</v>
+      </c>
+      <c r="C271">
+        <f>import!D271</f>
+        <v>347</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A272" t="str">
+        <f>import!$A272</f>
+        <v>StructureBareme</v>
+      </c>
+      <c r="B272">
+        <f>import!C272</f>
+        <v>271</v>
+      </c>
+      <c r="C272">
+        <f>import!D272</f>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A273" t="str">
+        <f>import!$A273</f>
+        <v>StructureBaremeBesoinRessource</v>
+      </c>
+      <c r="B273">
+        <f>import!C273</f>
+        <v>272</v>
+      </c>
+      <c r="C273">
+        <f>import!D273</f>
+        <v>273</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A274" t="str">
+        <f>import!$A274</f>
+        <v>StructureBaremeElement</v>
+      </c>
+      <c r="B274">
+        <f>import!C274</f>
+        <v>273</v>
+      </c>
+      <c r="C274">
+        <f>import!D274</f>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A275" t="str">
+        <f>import!$A275</f>
+        <v>StructureBaremeOperationForfait</v>
+      </c>
+      <c r="B275">
+        <f>import!C275</f>
+        <v>274</v>
+      </c>
+      <c r="C275">
+        <f>import!D275</f>
+        <v>273</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A276" t="str">
+        <f>import!$A276</f>
+        <v>StructureBesoinRessource</v>
+      </c>
+      <c r="B276">
+        <f>import!C276</f>
+        <v>275</v>
+      </c>
+      <c r="C276">
+        <f>import!D276</f>
+        <v>343</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A277" t="str">
+        <f>import!$A277</f>
+        <v>StructureBesoinRessourceHumaine</v>
+      </c>
+      <c r="B277">
+        <f>import!C277</f>
+        <v>276</v>
+      </c>
+      <c r="C277">
+        <f>import!D277</f>
+        <v>275</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A278" t="str">
+        <f>import!$A278</f>
+        <v>StructureBesoinRessourceMaterielle</v>
+      </c>
+      <c r="B278">
+        <f>import!C278</f>
+        <v>277</v>
+      </c>
+      <c r="C278">
+        <f>import!D278</f>
+        <v>275</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A279" t="str">
+        <f>import!$A279</f>
+        <v>StructureCatalogueActeur</v>
+      </c>
+      <c r="B279">
+        <f>import!C279</f>
+        <v>278</v>
+      </c>
+      <c r="C279">
+        <f>import!D279</f>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A280" t="str">
+        <f>import!$A280</f>
+        <v>StructureDevis</v>
+      </c>
+      <c r="B280">
+        <f>import!C280</f>
+        <v>279</v>
+      </c>
+      <c r="C280">
+        <f>import!D280</f>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A281" t="str">
+        <f>import!$A281</f>
+        <v>StructureDevisElement</v>
+      </c>
+      <c r="B281">
+        <f>import!C281</f>
+        <v>280</v>
+      </c>
+      <c r="C281">
+        <f>import!D281</f>
+        <v>281</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A282" t="str">
+        <f>import!$A282</f>
+        <v>StructureDevisElementAbstrait</v>
+      </c>
+      <c r="B282">
+        <f>import!C282</f>
+        <v>281</v>
+      </c>
+      <c r="C282">
+        <f>import!D282</f>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A283" t="str">
+        <f>import!$A283</f>
+        <v>StructureDevisElementActe</v>
+      </c>
+      <c r="B283">
+        <f>import!C283</f>
+        <v>282</v>
+      </c>
+      <c r="C283">
+        <f>import!D283</f>
+        <v>292</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A284" t="str">
+        <f>import!$A284</f>
+        <v>StructureDevisElementActeSupports</v>
+      </c>
+      <c r="B284">
+        <f>import!C284</f>
+        <v>283</v>
+      </c>
+      <c r="C284">
+        <f>import!D284</f>
+        <v>288</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A285" t="str">
+        <f>import!$A285</f>
+        <v>StructureDevisElementBesoinRessource</v>
+      </c>
+      <c r="B285">
+        <f>import!C285</f>
+        <v>284</v>
+      </c>
+      <c r="C285">
+        <f>import!D285</f>
+        <v>292</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A286" t="str">
+        <f>import!$A286</f>
+        <v>StructureDevisElementCoutsImprevus</v>
+      </c>
+      <c r="B286">
+        <f>import!C286</f>
+        <v>285</v>
+      </c>
+      <c r="C286">
+        <f>import!D286</f>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A287" t="str">
+        <f>import!$A287</f>
+        <v>StructureDevisElementDevis</v>
+      </c>
+      <c r="B287">
+        <f>import!C287</f>
+        <v>286</v>
+      </c>
+      <c r="C287">
+        <f>import!D287</f>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A288" t="str">
+        <f>import!$A288</f>
+        <v>StructureDevisElementEnveloppe</v>
+      </c>
+      <c r="B288">
+        <f>import!C288</f>
+        <v>287</v>
+      </c>
+      <c r="C288">
+        <f>import!D288</f>
+        <v>292</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A289" t="str">
+        <f>import!$A289</f>
+        <v>StructureDevisElementEnveloppeSupports</v>
+      </c>
+      <c r="B289">
+        <f>import!C289</f>
+        <v>288</v>
+      </c>
+      <c r="C289">
+        <f>import!D289</f>
+        <v>292</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A290" t="str">
+        <f>import!$A290</f>
+        <v>StructureDevisElementFraisExterne</v>
+      </c>
+      <c r="B290">
+        <f>import!C290</f>
+        <v>289</v>
+      </c>
+      <c r="C290">
+        <f>import!D290</f>
+        <v>292</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A291" t="str">
+        <f>import!$A291</f>
+        <v>StructureDevisElementFraisGeneraux</v>
+      </c>
+      <c r="B291">
+        <f>import!C291</f>
+        <v>290</v>
+      </c>
+      <c r="C291">
+        <f>import!D291</f>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A292" t="str">
+        <f>import!$A292</f>
+        <v>StructureDevisElementOperation</v>
+      </c>
+      <c r="B292">
+        <f>import!C292</f>
+        <v>291</v>
+      </c>
+      <c r="C292">
+        <f>import!D292</f>
+        <v>292</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A293" t="str">
+        <f>import!$A293</f>
+        <v>StructureDevisElementOperationItem</v>
+      </c>
+      <c r="B293">
+        <f>import!C293</f>
+        <v>292</v>
+      </c>
+      <c r="C293">
+        <f>import!D293</f>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A294" t="str">
+        <f>import!$A294</f>
+        <v>StructureDevisElementOperationSupports</v>
+      </c>
+      <c r="B294">
+        <f>import!C294</f>
+        <v>293</v>
+      </c>
+      <c r="C294">
+        <f>import!D294</f>
+        <v>288</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A295" t="str">
+        <f>import!$A295</f>
+        <v>StructureDevisElementOption</v>
+      </c>
+      <c r="B295">
+        <f>import!C295</f>
+        <v>294</v>
+      </c>
+      <c r="C295">
+        <f>import!D295</f>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A296" t="str">
+        <f>import!$A296</f>
+        <v>StructureDevisElementPhase</v>
+      </c>
+      <c r="B296">
+        <f>import!C296</f>
+        <v>295</v>
+      </c>
+      <c r="C296">
+        <f>import!D296</f>
+        <v>292</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A297" t="str">
+        <f>import!$A297</f>
+        <v>StructureDevisElementRacine</v>
+      </c>
+      <c r="B297">
+        <f>import!C297</f>
+        <v>296</v>
+      </c>
+      <c r="C297">
+        <f>import!D297</f>
+        <v>281</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A298" t="str">
+        <f>import!$A298</f>
+        <v>StructureDevisElementRemisesGenerales</v>
+      </c>
+      <c r="B298">
+        <f>import!C298</f>
+        <v>297</v>
+      </c>
+      <c r="C298">
+        <f>import!D298</f>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A299" t="str">
+        <f>import!$A299</f>
+        <v>StructureDevisLigne</v>
+      </c>
+      <c r="B299">
+        <f>import!C299</f>
+        <v>298</v>
+      </c>
+      <c r="C299">
+        <f>import!D299</f>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A300" t="str">
+        <f>import!$A300</f>
+        <v>StructureDevisLigneAvenantAbstrait</v>
+      </c>
+      <c r="B300">
+        <f>import!C300</f>
+        <v>299</v>
+      </c>
+      <c r="C300">
+        <f>import!D300</f>
+        <v>303</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A301" t="str">
+        <f>import!$A301</f>
+        <v>StructureDevisLigneAvenantLigneAnnulee</v>
+      </c>
+      <c r="B301">
+        <f>import!C301</f>
+        <v>300</v>
+      </c>
+      <c r="C301">
+        <f>import!D301</f>
+        <v>299</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A302" t="str">
+        <f>import!$A302</f>
+        <v>StructureDevisLigneAvenantLigneDelta</v>
+      </c>
+      <c r="B302">
+        <f>import!C302</f>
+        <v>301</v>
+      </c>
+      <c r="C302">
+        <f>import!D302</f>
+        <v>299</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A303" t="str">
+        <f>import!$A303</f>
+        <v>StructureDevisLigneBesoinRessource</v>
+      </c>
+      <c r="B303">
+        <f>import!C303</f>
+        <v>302</v>
+      </c>
+      <c r="C303">
+        <f>import!D303</f>
+        <v>304</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A304" t="str">
+        <f>import!$A304</f>
+        <v>StructureDevisLigneCoutAbstrait</v>
+      </c>
+      <c r="B304">
+        <f>import!C304</f>
+        <v>303</v>
+      </c>
+      <c r="C304">
+        <f>import!D304</f>
+        <v>298</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A305" t="str">
+        <f>import!$A305</f>
+        <v>StructureDevisLigneCoutBesoinRessourceAbstrait</v>
+      </c>
+      <c r="B305">
+        <f>import!C305</f>
+        <v>304</v>
+      </c>
+      <c r="C305">
+        <f>import!D305</f>
+        <v>314</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A306" t="str">
+        <f>import!$A306</f>
+        <v>StructureDevisLigneCoutBesoinRessourceFrais</v>
+      </c>
+      <c r="B306">
+        <f>import!C306</f>
+        <v>305</v>
+      </c>
+      <c r="C306">
+        <f>import!D306</f>
+        <v>304</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A307" t="str">
+        <f>import!$A307</f>
+        <v>StructureDevisLigneCoutBesoinRessourceFraisHeuresSup</v>
+      </c>
+      <c r="B307">
+        <f>import!C307</f>
+        <v>306</v>
+      </c>
+      <c r="C307">
+        <f>import!D307</f>
+        <v>305</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A308" t="str">
+        <f>import!$A308</f>
+        <v>StructureDevisLigneCoutCharges</v>
+      </c>
+      <c r="B308">
+        <f>import!C308</f>
+        <v>307</v>
+      </c>
+      <c r="C308">
+        <f>import!D308</f>
+        <v>303</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A309" t="str">
+        <f>import!$A309</f>
+        <v>StructureDevisLigneCoutChargesBesoinRessource</v>
+      </c>
+      <c r="B309">
+        <f>import!C309</f>
+        <v>308</v>
+      </c>
+      <c r="C309">
+        <f>import!D309</f>
+        <v>307</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A310" t="str">
+        <f>import!$A310</f>
+        <v>StructureDevisLigneCoutChargesOperationForfait</v>
+      </c>
+      <c r="B310">
+        <f>import!C310</f>
+        <v>309</v>
+      </c>
+      <c r="C310">
+        <f>import!D310</f>
+        <v>307</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A311" t="str">
+        <f>import!$A311</f>
+        <v>StructureDevisLigneCoutDevis</v>
+      </c>
+      <c r="B311">
+        <f>import!C311</f>
+        <v>310</v>
+      </c>
+      <c r="C311">
+        <f>import!D311</f>
+        <v>303</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A312" t="str">
+        <f>import!$A312</f>
+        <v>StructureDevisLigneCoutDevisAbstrait</v>
+      </c>
+      <c r="B312">
+        <f>import!C312</f>
+        <v>311</v>
+      </c>
+      <c r="C312">
+        <f>import!D312</f>
+        <v>303</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A313" t="str">
+        <f>import!$A313</f>
+        <v>StructureDevisLigneCoutDevisFraisGeneraux</v>
+      </c>
+      <c r="B313">
+        <f>import!C313</f>
+        <v>312</v>
+      </c>
+      <c r="C313">
+        <f>import!D313</f>
+        <v>311</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A314" t="str">
+        <f>import!$A314</f>
+        <v>StructureDevisLigneCoutDevisImprevus</v>
+      </c>
+      <c r="B314">
+        <f>import!C314</f>
+        <v>313</v>
+      </c>
+      <c r="C314">
+        <f>import!D314</f>
+        <v>311</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A315" t="str">
+        <f>import!$A315</f>
+        <v>StructureDevisLigneCoutOperationElement</v>
+      </c>
+      <c r="B315">
+        <f>import!C315</f>
+        <v>314</v>
+      </c>
+      <c r="C315">
+        <f>import!D315</f>
+        <v>303</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A316" t="str">
+        <f>import!$A316</f>
+        <v>StructureDevisLigneCoutOperationForfait</v>
+      </c>
+      <c r="B316">
+        <f>import!C316</f>
+        <v>315</v>
+      </c>
+      <c r="C316">
+        <f>import!D316</f>
+        <v>314</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A317" t="str">
+        <f>import!$A317</f>
+        <v>StructureDevisLigneCoutOperationLigneSupport</v>
+      </c>
+      <c r="B317">
+        <f>import!C317</f>
+        <v>316</v>
+      </c>
+      <c r="C317">
+        <f>import!D317</f>
+        <v>314</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A318" t="str">
+        <f>import!$A318</f>
+        <v>StructureDevisLigneCoutOptionDedit</v>
+      </c>
+      <c r="B318">
+        <f>import!C318</f>
+        <v>317</v>
+      </c>
+      <c r="C318">
+        <f>import!D318</f>
+        <v>303</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A319" t="str">
+        <f>import!$A319</f>
+        <v>StructureDevisLigneFraisExterne</v>
+      </c>
+      <c r="B319">
+        <f>import!C319</f>
+        <v>318</v>
+      </c>
+      <c r="C319">
+        <f>import!D319</f>
+        <v>303</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A320" t="str">
+        <f>import!$A320</f>
+        <v>StructureDevisLigneRemise</v>
+      </c>
+      <c r="B320">
+        <f>import!C320</f>
+        <v>319</v>
+      </c>
+      <c r="C320">
+        <f>import!D320</f>
+        <v>298</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A321" t="str">
+        <f>import!$A321</f>
+        <v>StructureDevisLigneRemiseAvenantAbstrait</v>
+      </c>
+      <c r="B321">
+        <f>import!C321</f>
+        <v>320</v>
+      </c>
+      <c r="C321">
+        <f>import!D321</f>
+        <v>319</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A322" t="str">
+        <f>import!$A322</f>
+        <v>StructureDevisLigneRemiseAvenantLigneAnnulee</v>
+      </c>
+      <c r="B322">
+        <f>import!C322</f>
+        <v>321</v>
+      </c>
+      <c r="C322">
+        <f>import!D322</f>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A323" t="str">
+        <f>import!$A323</f>
+        <v>StructureDevisLigneRemiseAvenantLigneDelta</v>
+      </c>
+      <c r="B323">
+        <f>import!C323</f>
+        <v>322</v>
+      </c>
+      <c r="C323">
+        <f>import!D323</f>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A324" t="str">
+        <f>import!$A324</f>
+        <v>StructureDevisLigneRemiseBesoinRessource</v>
+      </c>
+      <c r="B324">
+        <f>import!C324</f>
+        <v>323</v>
+      </c>
+      <c r="C324">
+        <f>import!D324</f>
+        <v>319</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A325" t="str">
+        <f>import!$A325</f>
+        <v>StructureDevisLigneRemiseUnique</v>
+      </c>
+      <c r="B325">
+        <f>import!C325</f>
+        <v>324</v>
+      </c>
+      <c r="C325">
+        <f>import!D325</f>
+        <v>319</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A326" t="str">
+        <f>import!$A326</f>
+        <v>StructureElement</v>
+      </c>
+      <c r="B326">
+        <f>import!C326</f>
+        <v>325</v>
+      </c>
+      <c r="C326">
+        <f>import!D326</f>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A327" t="str">
+        <f>import!$A327</f>
+        <v>StructureEnveloppe</v>
+      </c>
+      <c r="B327">
+        <f>import!C327</f>
+        <v>326</v>
+      </c>
+      <c r="C327">
+        <f>import!D327</f>
+        <v>327</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A328" t="str">
+        <f>import!$A328</f>
+        <v>StructureEnveloppeGenerique</v>
+      </c>
+      <c r="B328">
+        <f>import!C328</f>
+        <v>327</v>
+      </c>
+      <c r="C328">
+        <f>import!D328</f>
+        <v>343</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A329" t="str">
+        <f>import!$A329</f>
+        <v>StructureEnveloppeOperation</v>
+      </c>
+      <c r="B329">
+        <f>import!C329</f>
+        <v>328</v>
+      </c>
+      <c r="C329">
+        <f>import!D329</f>
+        <v>327</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A330" t="str">
+        <f>import!$A330</f>
+        <v>StructureFacture</v>
+      </c>
+      <c r="B330">
+        <f>import!C330</f>
+        <v>329</v>
+      </c>
+      <c r="C330">
+        <f>import!D330</f>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A331" t="str">
+        <f>import!$A331</f>
+        <v>StructureFactureDevis</v>
+      </c>
+      <c r="B331">
+        <f>import!C331</f>
+        <v>330</v>
+      </c>
+      <c r="C331">
+        <f>import!D331</f>
+        <v>329</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A332" t="str">
+        <f>import!$A332</f>
+        <v>StructureFactureElement</v>
+      </c>
+      <c r="B332">
+        <f>import!C332</f>
+        <v>331</v>
+      </c>
+      <c r="C332">
+        <f>import!D332</f>
+        <v>332</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A333" t="str">
+        <f>import!$A333</f>
+        <v>StructureFactureElementAbstrait</v>
+      </c>
+      <c r="B333">
+        <f>import!C333</f>
+        <v>332</v>
+      </c>
+      <c r="C333">
+        <f>import!D333</f>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A334" t="str">
+        <f>import!$A334</f>
+        <v>StructureFactureLigne</v>
+      </c>
+      <c r="B334">
+        <f>import!C334</f>
+        <v>333</v>
+      </c>
+      <c r="C334">
+        <f>import!D334</f>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A335" t="str">
+        <f>import!$A335</f>
+        <v>StructureFactureLigneContrepasse</v>
+      </c>
+      <c r="B335">
+        <f>import!C335</f>
+        <v>334</v>
+      </c>
+      <c r="C335">
+        <f>import!D335</f>
+        <v>333</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A336" t="str">
+        <f>import!$A336</f>
+        <v>StructureFactureLigneEncours</v>
+      </c>
+      <c r="B336">
+        <f>import!C336</f>
+        <v>335</v>
+      </c>
+      <c r="C336">
+        <f>import!D336</f>
+        <v>333</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A337" t="str">
+        <f>import!$A337</f>
+        <v>StructureFacturePartielle</v>
+      </c>
+      <c r="B337">
+        <f>import!C337</f>
+        <v>336</v>
+      </c>
+      <c r="C337">
+        <f>import!D337</f>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A338" t="str">
+        <f>import!$A338</f>
+        <v>StructureFacturePartielleDevis</v>
+      </c>
+      <c r="B338">
+        <f>import!C338</f>
+        <v>337</v>
+      </c>
+      <c r="C338">
+        <f>import!D338</f>
+        <v>336</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A339" t="str">
+        <f>import!$A339</f>
+        <v>StructureFacturePartielleSourceFinancement</v>
+      </c>
+      <c r="B339">
+        <f>import!C339</f>
+        <v>338</v>
+      </c>
+      <c r="C339">
+        <f>import!D339</f>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A340" t="str">
+        <f>import!$A340</f>
+        <v>StructureFactureRacine</v>
+      </c>
+      <c r="B340">
+        <f>import!C340</f>
+        <v>339</v>
+      </c>
+      <c r="C340">
+        <f>import!D340</f>
+        <v>332</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A341" t="str">
+        <f>import!$A341</f>
+        <v>StructureFraisExterne</v>
+      </c>
+      <c r="B341">
+        <f>import!C341</f>
+        <v>340</v>
+      </c>
+      <c r="C341">
+        <f>import!D341</f>
+        <v>343</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A342" t="str">
+        <f>import!$A342</f>
+        <v>StructureMembre</v>
+      </c>
+      <c r="B342">
+        <f>import!C342</f>
+        <v>341</v>
+      </c>
+      <c r="C342">
+        <f>import!D342</f>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A343" t="str">
+        <f>import!$A343</f>
+        <v>StructureOperation</v>
+      </c>
+      <c r="B343">
+        <f>import!C343</f>
+        <v>342</v>
+      </c>
+      <c r="C343">
+        <f>import!D343</f>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A344" t="str">
+        <f>import!$A344</f>
+        <v>StructureOperationElement</v>
+      </c>
+      <c r="B344">
+        <f>import!C344</f>
+        <v>343</v>
+      </c>
+      <c r="C344">
+        <f>import!D344</f>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A345" t="str">
+        <f>import!$A345</f>
+        <v>StructureOperationJour</v>
+      </c>
+      <c r="B345">
+        <f>import!C345</f>
+        <v>344</v>
+      </c>
+      <c r="C345">
+        <f>import!D345</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A346" t="str">
+        <f>import!$A346</f>
+        <v>StructureOperationLigneSupport</v>
+      </c>
+      <c r="B346">
+        <f>import!C346</f>
+        <v>345</v>
+      </c>
+      <c r="C346">
+        <f>import!D346</f>
+        <v>343</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A347" t="str">
+        <f>import!$A347</f>
+        <v>StructurePhase</v>
+      </c>
+      <c r="B347">
+        <f>import!C347</f>
+        <v>346</v>
+      </c>
+      <c r="C347">
+        <f>import!D347</f>
+        <v>347</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A348" t="str">
+        <f>import!$A348</f>
+        <v>StructurePhaseGenerique</v>
+      </c>
+      <c r="B348">
+        <f>import!C348</f>
+        <v>347</v>
+      </c>
+      <c r="C348">
+        <f>import!D348</f>
+        <v>327</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A349" t="str">
+        <f>import!$A349</f>
+        <v>StructurePhaseGeneriqueGUIGanttNiveau</v>
+      </c>
+      <c r="B349">
+        <f>import!C349</f>
+        <v>348</v>
+      </c>
+      <c r="C349">
+        <f>import!D349</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A350" t="str">
+        <f>import!$A350</f>
+        <v>StructureProjet</v>
+      </c>
+      <c r="B350">
+        <f>import!C350</f>
+        <v>349</v>
+      </c>
+      <c r="C350">
+        <f>import!D350</f>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A351" t="str">
+        <f>import!$A351</f>
+        <v>StructureRacine</v>
+      </c>
+      <c r="B351">
+        <f>import!C351</f>
+        <v>350</v>
+      </c>
+      <c r="C351">
+        <f>import!D351</f>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A352" t="str">
+        <f>import!$A352</f>
+        <v>StructureSysteme</v>
+      </c>
+      <c r="B352">
+        <f>import!C352</f>
+        <v>351</v>
+      </c>
+      <c r="C352">
+        <f>import!D352</f>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A353" t="str">
+        <f>import!$A353</f>
+        <v>Systeme</v>
+      </c>
+      <c r="B353">
+        <f>import!C353</f>
+        <v>352</v>
+      </c>
+      <c r="C353">
+        <f>import!D353</f>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A354" t="str">
+        <f>import!$A354</f>
+        <v>SystemeVersion</v>
+      </c>
+      <c r="B354">
+        <f>import!C354</f>
+        <v>353</v>
+      </c>
+      <c r="C354">
+        <f>import!D354</f>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A355" t="str">
+        <f>import!$A355</f>
+        <v>TableauBordElement</v>
+      </c>
+      <c r="B355">
+        <f>import!C355</f>
+        <v>354</v>
+      </c>
+      <c r="C355">
+        <f>import!D355</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A356" t="str">
+        <f>import!$A356</f>
+        <v>TypeActe</v>
+      </c>
+      <c r="B356">
+        <f>import!C356</f>
+        <v>355</v>
+      </c>
+      <c r="C356">
+        <f>import!D356</f>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A357" t="str">
+        <f>import!$A357</f>
+        <v>TypeMoyenStructurant</v>
+      </c>
+      <c r="B357">
+        <f>import!C357</f>
+        <v>356</v>
+      </c>
+      <c r="C357">
+        <f>import!D357</f>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A358" t="str">
+        <f>import!$A358</f>
+        <v>TypeRessource</v>
+      </c>
+      <c r="B358">
+        <f>import!C358</f>
+        <v>357</v>
+      </c>
+      <c r="C358">
+        <f>import!D358</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A359" t="str">
+        <f>import!$A359</f>
+        <v>TypeRessourceHumaine</v>
+      </c>
+      <c r="B359">
+        <f>import!C359</f>
+        <v>358</v>
+      </c>
+      <c r="C359">
+        <f>import!D359</f>
+        <v>357</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A360" t="str">
+        <f>import!$A360</f>
+        <v>TypeRessourceUniteDOeuvre</v>
+      </c>
+      <c r="B360">
+        <f>import!C360</f>
+        <v>359</v>
+      </c>
+      <c r="C360">
+        <f>import!D360</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A361" t="str">
+        <f>import!$A361</f>
+        <v>TypeSupport</v>
+      </c>
+      <c r="B361">
+        <f>import!C361</f>
+        <v>360</v>
+      </c>
+      <c r="C361">
+        <f>import!D361</f>
+        <v>357</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A362" t="str">
+        <f>import!$A362</f>
+        <v>TypeTechnique</v>
+      </c>
+      <c r="B362">
+        <f>import!C362</f>
+        <v>361</v>
+      </c>
+      <c r="C362">
+        <f>import!D362</f>
+        <v>357</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A363" t="str">
+        <f>import!$A363</f>
+        <v>UMM</v>
+      </c>
+      <c r="B363">
+        <f>import!C363</f>
+        <v>362</v>
+      </c>
+      <c r="C363">
+        <f>import!D363</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A364" t="str">
+        <f>import!$A364</f>
+        <v>UMM_AuthenticationDomain</v>
+      </c>
+      <c r="B364">
+        <f>import!C364</f>
+        <v>363</v>
+      </c>
+      <c r="C364">
+        <f>import!D364</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A365" t="str">
+        <f>import!$A365</f>
+        <v>UMM_DelegatingUser</v>
+      </c>
+      <c r="B365">
+        <f>import!C365</f>
+        <v>364</v>
+      </c>
+      <c r="C365">
+        <f>import!D365</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A366" t="str">
+        <f>import!$A366</f>
+        <v>UMM_Message</v>
+      </c>
+      <c r="B366">
+        <f>import!C366</f>
+        <v>365</v>
+      </c>
+      <c r="C366">
+        <f>import!D366</f>
+        <v>366</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A367" t="str">
+        <f>import!$A367</f>
+        <v>UMM_MessageAbstract</v>
+      </c>
+      <c r="B367">
+        <f>import!C367</f>
+        <v>366</v>
+      </c>
+      <c r="C367">
+        <f>import!D367</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A368" t="str">
+        <f>import!$A368</f>
+        <v>UMM_MessageTemplate</v>
+      </c>
+      <c r="B368">
+        <f>import!C368</f>
+        <v>367</v>
+      </c>
+      <c r="C368">
+        <f>import!D368</f>
+        <v>366</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A369" t="str">
+        <f>import!$A369</f>
+        <v>UMM_QUser</v>
+      </c>
+      <c r="B369">
+        <f>import!C369</f>
+        <v>368</v>
+      </c>
+      <c r="C369">
+        <f>import!D369</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A370" t="str">
+        <f>import!$A370</f>
+        <v>UMM_QUser_Message_Link</v>
+      </c>
+      <c r="B370">
+        <f>import!C370</f>
+        <v>369</v>
+      </c>
+      <c r="C370">
+        <f>import!D370</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A371" t="str">
+        <f>import!$A371</f>
+        <v>UMM_QUser_QUserGroup_Link</v>
+      </c>
+      <c r="B371">
+        <f>import!C371</f>
+        <v>370</v>
+      </c>
+      <c r="C371">
+        <f>import!D371</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A372" t="str">
+        <f>import!$A372</f>
+        <v>UMM_QUserGroup</v>
+      </c>
+      <c r="B372">
+        <f>import!C372</f>
+        <v>371</v>
+      </c>
+      <c r="C372">
+        <f>import!D372</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A373" t="str">
+        <f>import!$A373</f>
+        <v>UMM_Role</v>
+      </c>
+      <c r="B373">
+        <f>import!C373</f>
+        <v>372</v>
+      </c>
+      <c r="C373">
+        <f>import!D373</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A374" t="str">
+        <f>import!$A374</f>
+        <v>UMM_Role_Link</v>
+      </c>
+      <c r="B374">
+        <f>import!C374</f>
+        <v>373</v>
+      </c>
+      <c r="C374">
+        <f>import!D374</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A375" t="str">
+        <f>import!$A375</f>
+        <v>UMM_Role_QUser_Link</v>
+      </c>
+      <c r="B375">
+        <f>import!C375</f>
+        <v>374</v>
+      </c>
+      <c r="C375">
+        <f>import!D375</f>
+        <v>373</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A376" t="str">
+        <f>import!$A376</f>
+        <v>UMM_Role_QUserGroup_Link</v>
+      </c>
+      <c r="B376">
+        <f>import!C376</f>
+        <v>375</v>
+      </c>
+      <c r="C376">
+        <f>import!D376</f>
+        <v>373</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A377" t="str">
+        <f>import!$A377</f>
+        <v>UniteDOeuvre</v>
+      </c>
+      <c r="B377">
+        <f>import!C377</f>
+        <v>376</v>
+      </c>
+      <c r="C377">
+        <f>import!D377</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A378" t="str">
+        <f>import!$A378</f>
+        <v>UniteDOeuvreDuree</v>
+      </c>
+      <c r="B378">
+        <f>import!C378</f>
+        <v>377</v>
+      </c>
+      <c r="C378">
+        <f>import!D378</f>
+        <v>376</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A379" t="str">
+        <f>import!$A379</f>
+        <v>UniteDOeuvreHeure</v>
+      </c>
+      <c r="B379">
+        <f>import!C379</f>
+        <v>378</v>
+      </c>
+      <c r="C379">
+        <f>import!D379</f>
+        <v>377</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A380" t="str">
+        <f>import!$A380</f>
+        <v>UniteDOeuvreJournee</v>
+      </c>
+      <c r="B380">
+        <f>import!C380</f>
+        <v>379</v>
+      </c>
+      <c r="C380">
+        <f>import!D380</f>
+        <v>377</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A381" t="str">
+        <f>import!$A381</f>
+        <v>UniteDOeuvrePiece</v>
+      </c>
+      <c r="B381">
+        <f>import!C381</f>
+        <v>380</v>
+      </c>
+      <c r="C381">
+        <f>import!D381</f>
+        <v>381</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A382" t="str">
+        <f>import!$A382</f>
+        <v>UniteDOeuvreQuantite</v>
+      </c>
+      <c r="B382">
+        <f>import!C382</f>
+        <v>381</v>
+      </c>
+      <c r="C382">
+        <f>import!D382</f>
+        <v>376</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A383" t="str">
+        <f>import!$A383</f>
+        <v>UniteOrganisation</v>
+      </c>
+      <c r="B383">
+        <f>import!C383</f>
+        <v>382</v>
+      </c>
+      <c r="C383">
+        <f>import!D383</f>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A384" t="str">
+        <f>import!$A384</f>
+        <v>UniteOrganisationElement</v>
+      </c>
+      <c r="B384">
+        <f>import!C384</f>
+        <v>383</v>
+      </c>
+      <c r="C384">
+        <f>import!D384</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A385" t="str">
+        <f>import!$A385</f>
+        <v>UniteOrganisationSIRH</v>
+      </c>
+      <c r="B385">
+        <f>import!C385</f>
+        <v>384</v>
+      </c>
+      <c r="C385">
+        <f>import!D385</f>
+        <v>383</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A386" t="str">
+        <f>import!$A386</f>
+        <v>UnitePlanification</v>
+      </c>
+      <c r="B386">
+        <f>import!C386</f>
+        <v>385</v>
+      </c>
+      <c r="C386">
+        <f>import!D386</f>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A387" t="str">
+        <f>import!$A387</f>
+        <v>UO_Centre</v>
+      </c>
+      <c r="B387">
+        <f>import!C387</f>
+        <v>386</v>
+      </c>
+      <c r="C387">
+        <f>import!D387</f>
+        <v>382</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A388" t="str">
+        <f>import!$A388</f>
+        <v>UO_Departement</v>
+      </c>
+      <c r="B388">
+        <f>import!C388</f>
+        <v>387</v>
+      </c>
+      <c r="C388">
+        <f>import!D388</f>
+        <v>382</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A389" t="str">
+        <f>import!$A389</f>
+        <v>UO_Direction</v>
+      </c>
+      <c r="B389">
+        <f>import!C389</f>
+        <v>388</v>
+      </c>
+      <c r="C389">
+        <f>import!D389</f>
+        <v>382</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A390" t="str">
+        <f>import!$A390</f>
+        <v>UO_Domaine</v>
+      </c>
+      <c r="B390">
+        <f>import!C390</f>
+        <v>389</v>
+      </c>
+      <c r="C390">
+        <f>import!D390</f>
+        <v>382</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A391" t="str">
+        <f>import!$A391</f>
+        <v>UO_Secteur</v>
+      </c>
+      <c r="B391">
+        <f>import!C391</f>
+        <v>390</v>
+      </c>
+      <c r="C391">
+        <f>import!D391</f>
+        <v>382</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A392" t="str">
+        <f>import!$A392</f>
+        <v>UO_Service</v>
+      </c>
+      <c r="B392">
+        <f>import!C392</f>
+        <v>391</v>
+      </c>
+      <c r="C392">
+        <f>import!D392</f>
+        <v>382</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A393" t="str">
+        <f>import!$A393</f>
+        <v>UO_ThemeBudgetaire</v>
+      </c>
+      <c r="B393">
+        <f>import!C393</f>
+        <v>392</v>
+      </c>
+      <c r="C393">
+        <f>import!D393</f>
+        <v>382</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A394" t="str">
+        <f>import!$A394</f>
+        <v>Utilisateurs</v>
+      </c>
+      <c r="B394">
+        <f>import!C394</f>
+        <v>393</v>
+      </c>
+      <c r="C394">
+        <f>import!D394</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A395" t="str">
+        <f>import!$A395</f>
+        <v>UtilisateurService</v>
+      </c>
+      <c r="B395">
+        <f>import!C395</f>
+        <v>394</v>
+      </c>
+      <c r="C395">
+        <f>import!D395</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A396" t="str">
+        <f>import!$A396</f>
+        <v>UtilisateurUnitePlanification</v>
+      </c>
+      <c r="B396">
+        <f>import!C396</f>
+        <v>395</v>
+      </c>
+      <c r="C396">
+        <f>import!D396</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A397" t="str">
+        <f>import!$A397</f>
+        <v>WFM</v>
+      </c>
+      <c r="B397">
+        <f>import!C397</f>
+        <v>396</v>
+      </c>
+      <c r="C397">
+        <f>import!D397</f>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A398" t="str">
+        <f>import!$A398</f>
+        <v>WFM_DevisCloture</v>
+      </c>
+      <c r="B398">
+        <f>import!C398</f>
+        <v>397</v>
+      </c>
+      <c r="C398">
+        <f>import!D398</f>
+        <v>422</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A399" t="str">
+        <f>import!$A399</f>
+        <v>WFM_DevisModifiable</v>
+      </c>
+      <c r="B399">
+        <f>import!C399</f>
+        <v>398</v>
+      </c>
+      <c r="C399">
+        <f>import!D399</f>
+        <v>422</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A400" t="str">
+        <f>import!$A400</f>
+        <v>WFM_DevisNonValide</v>
+      </c>
+      <c r="B400">
+        <f>import!C400</f>
+        <v>399</v>
+      </c>
+      <c r="C400">
+        <f>import!D400</f>
+        <v>422</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A401" t="str">
+        <f>import!$A401</f>
+        <v>WFM_DevisValide</v>
+      </c>
+      <c r="B401">
+        <f>import!C401</f>
+        <v>400</v>
+      </c>
+      <c r="C401">
+        <f>import!D401</f>
+        <v>422</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A402" t="str">
+        <f>import!$A402</f>
+        <v>WFM_DevisVerrouillee</v>
+      </c>
+      <c r="B402">
+        <f>import!C402</f>
+        <v>401</v>
+      </c>
+      <c r="C402">
+        <f>import!D402</f>
+        <v>422</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A403" t="str">
+        <f>import!$A403</f>
+        <v>WFM_DevisVersionEtat</v>
+      </c>
+      <c r="B403">
+        <f>import!C403</f>
+        <v>402</v>
+      </c>
+      <c r="C403">
+        <f>import!D403</f>
+        <v>405</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A404" t="str">
+        <f>import!$A404</f>
+        <v>WFM_DevisVersionWFS</v>
+      </c>
+      <c r="B404">
+        <f>import!C404</f>
+        <v>403</v>
+      </c>
+      <c r="C404">
+        <f>import!D404</f>
+        <v>460</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A405" t="str">
+        <f>import!$A405</f>
+        <v>WFM_DomainObjectStateHistory</v>
+      </c>
+      <c r="B405">
+        <f>import!C405</f>
+        <v>404</v>
+      </c>
+      <c r="C405">
+        <f>import!D405</f>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A406" t="str">
+        <f>import!$A406</f>
+        <v>WFM_DomainObjectWithWorkflowState</v>
+      </c>
+      <c r="B406">
+        <f>import!C406</f>
+        <v>405</v>
+      </c>
+      <c r="C406">
+        <f>import!D406</f>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A407" t="str">
+        <f>import!$A407</f>
+        <v>WFM_FournisseurAssigne</v>
+      </c>
+      <c r="B407">
+        <f>import!C407</f>
+        <v>406</v>
+      </c>
+      <c r="C407">
+        <f>import!D407</f>
+        <v>460</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A408" t="str">
+        <f>import!$A408</f>
+        <v>WFM_Modifiable</v>
+      </c>
+      <c r="B408">
+        <f>import!C408</f>
+        <v>407</v>
+      </c>
+      <c r="C408">
+        <f>import!D408</f>
+        <v>460</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A409" t="str">
+        <f>import!$A409</f>
+        <v>WFM_OperationAnnulee</v>
+      </c>
+      <c r="B409">
+        <f>import!C409</f>
+        <v>408</v>
+      </c>
+      <c r="C409">
+        <f>import!D409</f>
+        <v>460</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A410" t="str">
+        <f>import!$A410</f>
+        <v>WFM_OperationAvecDevis</v>
+      </c>
+      <c r="B410">
+        <f>import!C410</f>
+        <v>409</v>
+      </c>
+      <c r="C410">
+        <f>import!D410</f>
+        <v>460</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A411" t="str">
+        <f>import!$A411</f>
+        <v>WFM_OperationAvecDevisValide</v>
+      </c>
+      <c r="B411">
+        <f>import!C411</f>
+        <v>410</v>
+      </c>
+      <c r="C411">
+        <f>import!D411</f>
+        <v>460</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A412" t="str">
+        <f>import!$A412</f>
+        <v>WFM_OperationAvecPrechiffrage</v>
+      </c>
+      <c r="B412">
+        <f>import!C412</f>
+        <v>411</v>
+      </c>
+      <c r="C412">
+        <f>import!D412</f>
+        <v>460</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A413" t="str">
+        <f>import!$A413</f>
+        <v>WFM_OperationAvecResponsableFournisseur</v>
+      </c>
+      <c r="B413">
+        <f>import!C413</f>
+        <v>412</v>
+      </c>
+      <c r="C413">
+        <f>import!D413</f>
+        <v>460</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A414" t="str">
+        <f>import!$A414</f>
+        <v>WFM_OperationForfait</v>
+      </c>
+      <c r="B414">
+        <f>import!C414</f>
+        <v>413</v>
+      </c>
+      <c r="C414">
+        <f>import!D414</f>
+        <v>460</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A415" t="str">
+        <f>import!$A415</f>
+        <v>WFM_OperationPrevalide</v>
+      </c>
+      <c r="B415">
+        <f>import!C415</f>
+        <v>414</v>
+      </c>
+      <c r="C415">
+        <f>import!D415</f>
+        <v>460</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A416" t="str">
+        <f>import!$A416</f>
+        <v>WFM_OperationVersionEtat</v>
+      </c>
+      <c r="B416">
+        <f>import!C416</f>
+        <v>415</v>
+      </c>
+      <c r="C416">
+        <f>import!D416</f>
+        <v>405</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A417" t="str">
+        <f>import!$A417</f>
+        <v>WFM_OperationVersionWFS</v>
+      </c>
+      <c r="B417">
+        <f>import!C417</f>
+        <v>416</v>
+      </c>
+      <c r="C417">
+        <f>import!D417</f>
+        <v>460</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A418" t="str">
+        <f>import!$A418</f>
+        <v>WFM_SampleDomainObject</v>
+      </c>
+      <c r="B418">
+        <f>import!C418</f>
+        <v>417</v>
+      </c>
+      <c r="C418">
+        <f>import!D418</f>
+        <v>405</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A419" t="str">
+        <f>import!$A419</f>
+        <v>WFM_SampleWFPIsComplete</v>
+      </c>
+      <c r="B419">
+        <f>import!C419</f>
+        <v>418</v>
+      </c>
+      <c r="C419">
+        <f>import!D419</f>
+        <v>421</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A420" t="str">
+        <f>import!$A420</f>
+        <v>WFM_SampleWorkFlowSpecification</v>
+      </c>
+      <c r="B420">
+        <f>import!C420</f>
+        <v>419</v>
+      </c>
+      <c r="C420">
+        <f>import!D420</f>
+        <v>460</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A421" t="str">
+        <f>import!$A421</f>
+        <v>WFM_Verrouillee</v>
+      </c>
+      <c r="B421">
+        <f>import!C421</f>
+        <v>420</v>
+      </c>
+      <c r="C421">
+        <f>import!D421</f>
+        <v>460</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A422" t="str">
+        <f>import!$A422</f>
+        <v>WFM_WorkflowPredicate</v>
+      </c>
+      <c r="B422">
+        <f>import!C422</f>
+        <v>421</v>
+      </c>
+      <c r="C422">
+        <f>import!D422</f>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A423" t="str">
+        <f>import!$A423</f>
+        <v>WFM_WorkflowPredicateDevis</v>
+      </c>
+      <c r="B423">
+        <f>import!C423</f>
+        <v>422</v>
+      </c>
+      <c r="C423">
+        <f>import!D423</f>
+        <v>421</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A424" t="str">
+        <f>import!$A424</f>
+        <v>WFM_WorkflowPredicateDevisAvenantOriginalNonValide</v>
+      </c>
+      <c r="B424">
+        <f>import!C424</f>
+        <v>423</v>
+      </c>
+      <c r="C424">
+        <f>import!D424</f>
+        <v>422</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A425" t="str">
+        <f>import!$A425</f>
+        <v>WFM_WorkflowPredicateDevisAvenantOriginalValide</v>
+      </c>
+      <c r="B425">
+        <f>import!C425</f>
+        <v>424</v>
+      </c>
+      <c r="C425">
+        <f>import!D425</f>
+        <v>422</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A426" t="str">
+        <f>import!$A426</f>
+        <v>WFM_WorkflowPredicateDevisOperationsAvecAvenantValide</v>
+      </c>
+      <c r="B426">
+        <f>import!C426</f>
+        <v>425</v>
+      </c>
+      <c r="C426">
+        <f>import!D426</f>
+        <v>422</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A427" t="str">
+        <f>import!$A427</f>
+        <v>WFM_WorkflowPredicateDevisOperationsAvecDevisValide</v>
+      </c>
+      <c r="B427">
+        <f>import!C427</f>
+        <v>426</v>
+      </c>
+      <c r="C427">
+        <f>import!D427</f>
+        <v>422</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A428" t="str">
+        <f>import!$A428</f>
+        <v>WFM_WorkflowPredicateDevisOperationsCreesParFournisseur</v>
+      </c>
+      <c r="B428">
+        <f>import!C428</f>
+        <v>427</v>
+      </c>
+      <c r="C428">
+        <f>import!D428</f>
+        <v>422</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A429" t="str">
+        <f>import!$A429</f>
+        <v>WFM_WorkflowPredicateDevisOperationsPrevalidees</v>
+      </c>
+      <c r="B429">
+        <f>import!C429</f>
+        <v>428</v>
+      </c>
+      <c r="C429">
+        <f>import!D429</f>
+        <v>422</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A430" t="str">
+        <f>import!$A430</f>
+        <v>WFM_WorkflowPredicateDevisPrechiffrageAvecDevis</v>
+      </c>
+      <c r="B430">
+        <f>import!C430</f>
+        <v>429</v>
+      </c>
+      <c r="C430">
+        <f>import!D430</f>
+        <v>422</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A431" t="str">
+        <f>import!$A431</f>
+        <v>WFM_WorkflowPredicateDevisTypeAvenant</v>
+      </c>
+      <c r="B431">
+        <f>import!C431</f>
+        <v>430</v>
+      </c>
+      <c r="C431">
+        <f>import!D431</f>
+        <v>422</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A432" t="str">
+        <f>import!$A432</f>
+        <v>WFM_WorkflowPredicateDevisTypeDevis</v>
+      </c>
+      <c r="B432">
+        <f>import!C432</f>
+        <v>431</v>
+      </c>
+      <c r="C432">
+        <f>import!D432</f>
+        <v>422</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A433" t="str">
+        <f>import!$A433</f>
+        <v>WFM_WorkflowPredicateDevisTypePrechiffrage</v>
+      </c>
+      <c r="B433">
+        <f>import!C433</f>
+        <v>432</v>
+      </c>
+      <c r="C433">
+        <f>import!D433</f>
+        <v>422</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A434" t="str">
+        <f>import!$A434</f>
+        <v>WFM_WorkflowPredicateOperation</v>
+      </c>
+      <c r="B434">
+        <f>import!C434</f>
+        <v>433</v>
+      </c>
+      <c r="C434">
+        <f>import!D434</f>
+        <v>421</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A435" t="str">
+        <f>import!$A435</f>
+        <v>WFM_WorkflowPredicateOperationCreeeParFournisseur</v>
+      </c>
+      <c r="B435">
+        <f>import!C435</f>
+        <v>434</v>
+      </c>
+      <c r="C435">
+        <f>import!D435</f>
+        <v>460</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A436" t="str">
+        <f>import!$A436</f>
+        <v>WFM_WorkflowSpecification</v>
+      </c>
+      <c r="B436">
+        <f>import!C436</f>
+        <v>435</v>
+      </c>
+      <c r="C436">
+        <f>import!D436</f>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A437" t="str">
+        <f>import!$A437</f>
+        <v>WFM_WorkflowState</v>
+      </c>
+      <c r="B437">
+        <f>import!C437</f>
+        <v>436</v>
+      </c>
+      <c r="C437">
+        <f>import!D437</f>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A438" t="str">
+        <f>import!$A438</f>
+        <v>WFM_WorkflowTransition</v>
+      </c>
+      <c r="B438">
+        <f>import!C438</f>
+        <v>437</v>
+      </c>
+      <c r="C438">
+        <f>import!D438</f>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A439" t="str">
+        <f>import!$A439</f>
+        <v>WFM_WorkflowTransitionPredicate</v>
+      </c>
+      <c r="B439">
+        <f>import!C439</f>
+        <v>438</v>
+      </c>
+      <c r="C439">
+        <f>import!D439</f>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A440" t="str">
+        <f>import!$A440</f>
+        <v>WFM_WorkflowTransitionUserGroup</v>
+      </c>
+      <c r="B440">
+        <f>import!C440</f>
+        <v>439</v>
+      </c>
+      <c r="C440">
+        <f>import!D440</f>
+        <v>325</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A441" t="str">
+        <f>import!$A441</f>
+        <v>Calendar</v>
+      </c>
+      <c r="B441">
+        <f>import!C441</f>
+        <v>440</v>
+      </c>
+      <c r="C441">
+        <f>import!D441</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A442" t="str">
+        <f>import!$A442</f>
+        <v>CalendarPeriod</v>
+      </c>
+      <c r="B442">
+        <f>import!C442</f>
+        <v>441</v>
+      </c>
+      <c r="C442" t="e">
+        <f>import!D442</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A443" t="str">
+        <f>import!$A443</f>
+        <v>Capacity</v>
+      </c>
+      <c r="B443">
+        <f>import!C443</f>
+        <v>442</v>
+      </c>
+      <c r="C443">
+        <f>import!D443</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A444" t="str">
+        <f>import!$A444</f>
+        <v>CapacityElement</v>
+      </c>
+      <c r="B444">
+        <f>import!C444</f>
+        <v>443</v>
+      </c>
+      <c r="C444">
+        <f>import!D444</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A445" t="str">
+        <f>import!$A445</f>
+        <v>ExplicitTimeInterval</v>
+      </c>
+      <c r="B445">
+        <f>import!C445</f>
+        <v>444</v>
+      </c>
+      <c r="C445">
+        <f>import!D445</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A446" t="str">
+        <f>import!$A446</f>
+        <v>GISLibrary</v>
+      </c>
+      <c r="B446">
+        <f>import!C446</f>
+        <v>445</v>
+      </c>
+      <c r="C446">
+        <f>import!D446</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A447" t="str">
+        <f>import!$A447</f>
+        <v>GISLocation</v>
+      </c>
+      <c r="B447">
+        <f>import!C447</f>
+        <v>446</v>
+      </c>
+      <c r="C447">
+        <f>import!D447</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A448" t="str">
+        <f>import!$A448</f>
+        <v>GISMatrix</v>
+      </c>
+      <c r="B448">
+        <f>import!C448</f>
+        <v>447</v>
+      </c>
+      <c r="C448">
+        <f>import!D448</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A449" t="str">
+        <f>import!$A449</f>
+        <v>Graph</v>
+      </c>
+      <c r="B449">
+        <f>import!C449</f>
+        <v>448</v>
+      </c>
+      <c r="C449">
+        <f>import!D449</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A450" t="str">
+        <f>import!$A450</f>
+        <v>GraphEdge</v>
+      </c>
+      <c r="B450">
+        <f>import!C450</f>
+        <v>449</v>
+      </c>
+      <c r="C450">
+        <f>import!D450</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A451" t="str">
+        <f>import!$A451</f>
+        <v>GraphNode</v>
+      </c>
+      <c r="B451">
+        <f>import!C451</f>
+        <v>450</v>
+      </c>
+      <c r="C451">
+        <f>import!D451</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A452" t="str">
+        <f>import!$A452</f>
+        <v>Index</v>
+      </c>
+      <c r="B452">
+        <f>import!C452</f>
+        <v>451</v>
+      </c>
+      <c r="C452">
+        <f>import!D452</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A453" t="str">
+        <f>import!$A453</f>
+        <v>IndexElement</v>
+      </c>
+      <c r="B453">
+        <f>import!C453</f>
+        <v>452</v>
+      </c>
+      <c r="C453">
+        <f>import!D453</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A454" t="str">
+        <f>import!$A454</f>
+        <v>Object</v>
+      </c>
+      <c r="B454">
+        <f>import!C454</f>
+        <v>453</v>
+      </c>
+      <c r="C454" t="e">
+        <f>import!D454</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A455" t="str">
+        <f>import!$A455</f>
+        <v>Sequence</v>
+      </c>
+      <c r="B455">
+        <f>import!C455</f>
+        <v>454</v>
+      </c>
+      <c r="C455">
+        <f>import!D455</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A456" t="str">
+        <f>import!$A456</f>
+        <v>SequenceElement</v>
+      </c>
+      <c r="B456">
+        <f>import!C456</f>
+        <v>455</v>
+      </c>
+      <c r="C456">
+        <f>import!D456</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A457" t="str">
+        <f>import!$A457</f>
+        <v>Stock</v>
+      </c>
+      <c r="B457">
+        <f>import!C457</f>
+        <v>456</v>
+      </c>
+      <c r="C457">
+        <f>import!D457</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A458" t="str">
+        <f>import!$A458</f>
+        <v>StockElement</v>
+      </c>
+      <c r="B458">
+        <f>import!C458</f>
+        <v>457</v>
+      </c>
+      <c r="C458">
+        <f>import!D458</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A459" t="str">
+        <f>import!$A459</f>
+        <v>Timer</v>
+      </c>
+      <c r="B459">
+        <f>import!C459</f>
+        <v>458</v>
+      </c>
+      <c r="C459">
+        <f>import!D459</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A460" t="str">
+        <f>import!$A460</f>
+        <v>Tree</v>
+      </c>
+      <c r="B460">
+        <f>import!C460</f>
+        <v>459</v>
+      </c>
+      <c r="C460">
+        <f>import!D460</f>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A461" t="str">
+        <f>import!$A461</f>
+        <v>TreeNode</v>
+      </c>
+      <c r="B461">
+        <f>import!C461</f>
+        <v>460</v>
+      </c>
+      <c r="C461">
+        <f>import!D461</f>
+        <v>205</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>